--- a/test/client/e2e test cases.xlsx
+++ b/test/client/e2e test cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20300" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14120" tabRatio="500" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="未登录" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3000" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3000" uniqueCount="689">
   <si>
     <t>步骤</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1431,10 +1431,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>底部pagination条应显示总计数和分页数，分页数=总计数/50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>点击导航栏中的“应聘”菜单，点击“待定”子菜单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1471,1190 +1467,1226 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>点击导航栏中的“面试”菜单，点击“评价”子菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pagination4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pagination5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pagination6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pagination7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/interviews/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击导航栏中的“面试”菜单，点击“面试中”子菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/interviews/offers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击导航栏中的“面试”菜单，点击“通过”子菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入职</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击导航栏中的“面试”菜单，点击“入职”子菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人才库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/resumes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击导航栏中的“人才库”菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pagination8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pagination9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/settings/emails</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击导航栏中的“设置”菜单，点击“简历邮箱”子菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pagination10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pagination11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/settings/users</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击导航栏中的“设置”菜单，点击“用户”子菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/settings/roles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击导航栏中的“设置”菜单，点击“角色”子菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/events</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击导航栏中的“日历”菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击导航栏中的“日历”菜单，点击右上角的“月”按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击导航栏中的“日历”菜单，点击右上角的“天”按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应进入日历周视图，右上角有月，周，天按钮和用户筛选下拉菜单，左上角有“今日”按钮，日历正中显示本周起止时间和本周是今年第几周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应进入日历月视图，日历正中显示某某年某某月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应进入日历日视图，日历正中显示当天日期和星期几</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日历视图应回到本周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击导航栏中的“日历”菜单，进入周视图。点击左上角的左箭头按钮，将日历视图调整至过去的时间。点击“今日”按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击导航栏中的“日历”菜单，进入周视图。点击左上角的右箭头按钮，将日历视图调整至未来的时间。点击“今日”按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击导航栏中的“日历”菜单，进入月视图。点击左上角的左箭头按钮，将日历视图调整至过去的时间。点击“今日”按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日历视图应回到本月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日历视图应回到本月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击导航栏中的“日历”菜单，进入月视图。点击左上角的右箭头按钮，将日历视图调整至未来的时间。点击“今日”按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日历视图应回到本日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击导航栏中的“日历”菜单，进入日视图。点击左上角的左箭头按钮，将日历视图调整至过去的时间。点击“今日”按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击导航栏中的“日历”菜单，进入日视图。点击左上角的右箭头按钮，将日历视图调整至未来的时间。点击“今日”按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日历视图应回到本日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击导航栏中的“日历”菜单，单击某个事件项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出修改面试预约窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出的修改面试预约窗口应有姓名，应聘职位，手机号码和邮箱四项信息；时间，时长和面试官三个选项；简历，修改，删除和取消四个按钮。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出提示框“修改成功”。再次点击该事件，时长应为修改后的时长。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击导航栏中的“日历”菜单，单击某个事件项，然后在弹出的修改面试预约窗口中修改时长后点击修改按钮。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出提示框“修改成功”。再次点击该事件，面试时间应为修改后的时间。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击导航栏中的“日历”菜单，单击某个事件项，然后在弹出的修改面试预约窗口中点击时间选择框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出时间选择窗口，应不能选择今天以前的日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击导航栏中的“日历”菜单，单击某个事件项，然后在弹出的修改面试预约窗口中添加面试官</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出提示框“修改成功”。再次点击该事件，面试官选项中应包含添加的面试官</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击导航栏中的“日历”菜单，单击某个事件项，然后在弹出的修改面试预约窗口中删除面试官</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出提示框“修改成功”。再次点击该事件，面试官选项中应不包含删除后的面试官</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击导航栏中的“日历”菜单，单击某个事件项，然后在弹出的修改面试预约窗口中删除时长值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框下方弹出提示“请输入时长”，修改按钮变为disabled状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击导航栏中的“日历”菜单，单击某个事件项，然后在弹出的修改面试预约窗口中将面试官全部删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出提示框“请输入面试官”，修改按钮变为disabled状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该事件应从日历上消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击导航栏中的“日历”菜单，单击某个事件项，然后在弹出的修改面试预约窗口中点击取消按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应回到日历视图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击导航栏中的“日历”菜单，单击某个事件项，然后在弹出的修改面试预约窗口中点击简历按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击导航栏中的“日历”菜单，在右上角的用户选择下拉菜单中选择一个用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日历中应只出现该用户为面试官的事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击导航栏中的“日历”菜单，在右上角的用户选择下拉菜单中选择“全部”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日历中应该出现全部事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日历中应只显示当前登录用户为面试官的日历项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击导航栏中的“日历”菜单，单击当天的某个事件项，然后在弹出的修改面试预约窗口中点击删除按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应跳转到/resumes/:id页面，其各项信息都应正确显示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击导航栏中的“日历”菜单，单击非今日的某个事件项，然后在弹出的修改面试预约窗口中点击删除按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该事件应从日历上消失，同时右上角的今日事件消息计数值减一。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击导航栏中的“日历”菜单，单击某个事件项，然后在弹出的修改面试预约窗口中修改面试时间为该日另外一个时间点后点击修改按钮。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击导航栏中的“日历”菜单，单击今日某个事件项，然后在弹出的修改面试预约窗口中修改面试日期为另外一天后点击修改按钮。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击导航栏中的“日历”菜单，单击某个事件项，然后在弹出的修改面试预约窗口中修改面试日期为另外一天后点击修改按钮。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击导航栏中的“日历”菜单，单击非今日某个事件项，然后在弹出的修改面试预约窗口中修改面试日期为今日后点击修改按钮。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出提示框“修改成功”。事件应出现在今日的日期框中。同时右上角的今日事件消息计数值加一。再次点击该事件，面试时间应为修改后的时间。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出提示框“修改成功”。事件应出现在修改后日期的日期框中。再次点击该事件，面试时间应为修改后的时间。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击导航栏中的“日历”菜单，拖动某个非今日的事件项到非今日的另一天中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击该事件，其日期应为修改后的日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击导航栏中的“日历”菜单，拖动某个非今日的事件项到今天的另一天中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出提示框“修改成功”。事件应出现在修改后日期的日期框中。同时右上角的今日事件消息计数值减一。再次点击该事件，面试时间应为修改后的时间。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击导航栏中的“日历”菜单，拖动今日之后的事件项到今日或者今日之前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击该事件，其日期应为今天，同时右上角的今日事件消息计数值加一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右上角的待评价面试消息计数值加一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击导航栏中的“日历”菜单，点击今日之后的事件项，修改日期到今日或者今日之前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右上角的待评价面试消息计数值减一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击导航栏中的“日历”菜单，点击今日或今日之前未评论过的事件项，修改日期到今日之后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击导航栏中的“日历”菜单，拖动今日或今日之前未评论过的事件项到今日之后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击导航栏中的“日历”菜单，点击今日或今日之前已评论过的事件项，修改日期到今日之后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右上角的待评价面试消息计数值不变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击导航栏中的“日历”菜单，拖动今日或今日之前已评论过的事件项到今日之后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击导航栏中的“日历”菜单，单击今日之前的某个未评价过的事件项，然后在弹出的修改面试预约窗口中点击删除按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该事件应从日历上消失，同时右上角待评价面试消息计数值减一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>events2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>events3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>events4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>events5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>events6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>events7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>events8</t>
+  </si>
+  <si>
+    <t>events1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>events9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>events10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>events11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>events12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>events13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>events14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>events15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>events16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>events17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>events18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>events19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>events20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>events21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>events22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>events23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>events24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>events25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>events26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>events27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>events28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>events29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>events30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>events31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>events32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>events33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>events34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>events35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>events36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>events37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>events38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settings users 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settings users 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settings users 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settings mails 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settings mails 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settings mails 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击settings users 2步骤中的保存按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击settings users 2步骤中的取消按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settings users 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settings users 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settings users 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settings users 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settings users 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击settings users 7步骤中的保存按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settings users 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settings users 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settings users 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settings users 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settings ec 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击settings ec 1步骤中的添加按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settings ec 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在settings ec 2中的名称和系数输入框输入名称和系数，点击添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在settings ec 2中的名称和系数输入框输入名称和系数，点击添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在settings ec 2步骤中，点击添加，然后点击取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在settings ec 2步骤中点击某一项的删除按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settings ec 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settings ec 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settings ec 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settings ec 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settings eventsettings 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击settings eventsettings 1中的“创建面试邀请tab”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settings eventsettings 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击settings eventsettings 1中的“修改面试邀请tab”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击settings eventsettings 1中的“取消面试邀请tab”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settings eventsettings 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settings eventsettings 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settings roles 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settings roles 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在settings roles 2中，填入角色名称，点击保存按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settings roles 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settings roles 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在settings roles 2中，点击取消按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在settings roles 2中，勾选“全部选择”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在settings roles 2中，勾选“应聘”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在settings roles 2中，取消勾选“应聘”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在settings roles 2中，勾选“待定”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在settings roles 2中，取消勾选“待定”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在settings roles 2中，勾选新应聘，待定和通过三个checkbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settings roles 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settings roles 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settings roles 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settings roles 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settings roles 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settings roles 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settings roles 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settings roles 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在settings roles 12中，填入角色名称，点击保存按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在settings roles 12中，填入角色名称，点击保存按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在settings roles 12中，点击取消按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在settings roles 12中，勾选“全部选择”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在settings roles 12中，勾选“应聘”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在settings roles 12中，取消勾选“应聘”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在settings roles 12中，勾选“待定”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在settings roles 12中，取消勾选“待定”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在settings roles 12中，勾选新应聘，待定和通过三个checkbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settings roles 13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settings roles 14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settings roles 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settings roles 16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settings roles 17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settings roles 18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settings roles 19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settings roles 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settings roles 21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settings roles 22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews reviews 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews reviews 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews reviews 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在interviews reviews 2中点击搜索按钮后，点击清空按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews reviews 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在interviews reviews 3中点击搜索按钮后，点击清空按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews reviews 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews reviews 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在interviews reviews 6中点击搜索按钮后，点击清空按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews reviews 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews reviews 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击interviews reviews 8中的返回列表按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews reviews 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews reviews 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击interviews reviews 10中的通过按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击interviews reviews 10中的拒绝按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击interviews reviews 10中的取消按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews reviews 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews reviews 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews reviews 13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews list 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews list 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在interviews list 2中点击搜索按钮后，点击清空按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews list 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews list 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在interviews list 4中点击搜索按钮后，点击清空按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews list 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在interviews list 5中点击搜索按钮后，点击清空按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews list 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews list 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews list 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews list 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews list 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在interviews list 9中点击返回列表按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在interviews list 9中点击拒绝按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在interviews list 9中点击接受按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews list 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews list 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews offer 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews offer 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在interviews offer 2中点击搜索按钮后，点击清空按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews offer 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews offer 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在interviews offer 4中点击搜索按钮后，点击清空按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews offer 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews onboards 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews onboards 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews onboards 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在interviews onboards 2中点击搜索按钮后，点击清空按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews onboards 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews onboards 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews onboards 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews onboards 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews onboards 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews onboards 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews onboards 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews onboards 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在interviews onboards 10中点击搜索按钮后，点击清空按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在界面勾选记住我，输入正确用户名和密码登陆,登陆后退出浏览器，再次打开浏览器。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开网站，应可以直接进入主页/today</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应进入/login登陆界面，要求登陆后才能进入主页/today</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在界面取消勾选记住我，输入正确用户名和密码登陆。登陆后退出浏览器，再次打开浏览器，打开网站。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码不足六位不能点击按钮。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forgot3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码不足六位不能点击按钮。若重置链接无效，显示“重置链接无效”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forgot4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若重置链接有效，显示“密码重置成功”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在forgot3中重置密码后，打开/login页面，用重置后的密码登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应能成功登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forgot5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活成功则显示“您的注册已激活，请使用邮箱和密码登陆”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在activate1中成功激活邮箱后，用注册的邮箱和密码登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应能成功登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活失败则显示“您的注册激活失败。可能因为该公司或邮箱已注册。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activate3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activate2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activate4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在activate3中激活邮箱失败后，用注册的邮箱和密码登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应能不能成功登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口应关闭，并跳转到/resumes/:id页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底部pagination条应显示总计数和分页数。总计数为0时pagination条应不显示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底部pagination条应显示总计数和分页数，分页数=总计数/50。总计数为0时pagination条应不显示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/interviews/reviews</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>点击导航栏中的“面试”菜单，点击“评价”子菜单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>底部pagination条应显示总计数和分页数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pagination4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pagination5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pagination6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pagination7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面试中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/interviews/list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击导航栏中的“面试”菜单，点击“面试中”子菜单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/interviews/offers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击导航栏中的“面试”菜单，点击“通过”子菜单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入职</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击导航栏中的“面试”菜单，点击“入职”子菜单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人才库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N/A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/resumes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击导航栏中的“人才库”菜单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pagination8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pagination9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/settings/emails</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击导航栏中的“设置”菜单，点击“简历邮箱”子菜单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pagination10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pagination11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/settings/users</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击导航栏中的“设置”菜单，点击“用户”子菜单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/settings/roles</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击导航栏中的“设置”菜单，点击“角色”子菜单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N/A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/events</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击导航栏中的“日历”菜单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击导航栏中的“日历”菜单，点击右上角的“月”按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击导航栏中的“日历”菜单，点击右上角的“天”按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应进入日历周视图，右上角有月，周，天按钮和用户筛选下拉菜单，左上角有“今日”按钮，日历正中显示本周起止时间和本周是今年第几周</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应进入日历月视图，日历正中显示某某年某某月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应进入日历日视图，日历正中显示当天日期和星期几</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日历视图应回到本周</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击导航栏中的“日历”菜单，进入周视图。点击左上角的左箭头按钮，将日历视图调整至过去的时间。点击“今日”按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击导航栏中的“日历”菜单，进入周视图。点击左上角的右箭头按钮，将日历视图调整至未来的时间。点击“今日”按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击导航栏中的“日历”菜单，进入月视图。点击左上角的左箭头按钮，将日历视图调整至过去的时间。点击“今日”按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日历视图应回到本月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日历视图应回到本月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击导航栏中的“日历”菜单，进入月视图。点击左上角的右箭头按钮，将日历视图调整至未来的时间。点击“今日”按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日历视图应回到本日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击导航栏中的“日历”菜单，进入日视图。点击左上角的左箭头按钮，将日历视图调整至过去的时间。点击“今日”按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击导航栏中的“日历”菜单，进入日视图。点击左上角的右箭头按钮，将日历视图调整至未来的时间。点击“今日”按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日历视图应回到本日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击导航栏中的“日历”菜单，单击某个事件项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出修改面试预约窗口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出的修改面试预约窗口应有姓名，应聘职位，手机号码和邮箱四项信息；时间，时长和面试官三个选项；简历，修改，删除和取消四个按钮。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出提示框“修改成功”。再次点击该事件，时长应为修改后的时长。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击导航栏中的“日历”菜单，单击某个事件项，然后在弹出的修改面试预约窗口中修改时长后点击修改按钮。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出提示框“修改成功”。再次点击该事件，面试时间应为修改后的时间。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击导航栏中的“日历”菜单，单击某个事件项，然后在弹出的修改面试预约窗口中点击时间选择框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出时间选择窗口，应不能选择今天以前的日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击导航栏中的“日历”菜单，单击某个事件项，然后在弹出的修改面试预约窗口中添加面试官</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出提示框“修改成功”。再次点击该事件，面试官选项中应包含添加的面试官</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击导航栏中的“日历”菜单，单击某个事件项，然后在弹出的修改面试预约窗口中删除面试官</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出提示框“修改成功”。再次点击该事件，面试官选项中应不包含删除后的面试官</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击导航栏中的“日历”菜单，单击某个事件项，然后在弹出的修改面试预约窗口中删除时长值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框下方弹出提示“请输入时长”，修改按钮变为disabled状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击导航栏中的“日历”菜单，单击某个事件项，然后在弹出的修改面试预约窗口中将面试官全部删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出提示框“请输入面试官”，修改按钮变为disabled状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该事件应从日历上消失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击导航栏中的“日历”菜单，单击某个事件项，然后在弹出的修改面试预约窗口中点击取消按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应回到日历视图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击导航栏中的“日历”菜单，单击某个事件项，然后在弹出的修改面试预约窗口中点击简历按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应跳转到/resumes/:id页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击导航栏中的“日历”菜单，在右上角的用户选择下拉菜单中选择一个用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日历中应只出现该用户为面试官的事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击导航栏中的“日历”菜单，在右上角的用户选择下拉菜单中选择“全部”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日历中应该出现全部事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日历中应只显示当前登录用户为面试官的日历项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击导航栏中的“日历”菜单，单击当天的某个事件项，然后在弹出的修改面试预约窗口中点击删除按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应跳转到/resumes/:id页面，其各项信息都应正确显示。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击导航栏中的“日历”菜单，单击非今日的某个事件项，然后在弹出的修改面试预约窗口中点击删除按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该事件应从日历上消失，同时右上角的今日事件消息计数值减一。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击导航栏中的“日历”菜单，单击某个事件项，然后在弹出的修改面试预约窗口中修改面试时间为该日另外一个时间点后点击修改按钮。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击导航栏中的“日历”菜单，单击今日某个事件项，然后在弹出的修改面试预约窗口中修改面试日期为另外一天后点击修改按钮。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击导航栏中的“日历”菜单，单击某个事件项，然后在弹出的修改面试预约窗口中修改面试日期为另外一天后点击修改按钮。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击导航栏中的“日历”菜单，单击非今日某个事件项，然后在弹出的修改面试预约窗口中修改面试日期为今日后点击修改按钮。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出提示框“修改成功”。事件应出现在今日的日期框中。同时右上角的今日事件消息计数值加一。再次点击该事件，面试时间应为修改后的时间。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出提示框“修改成功”。事件应出现在修改后日期的日期框中。再次点击该事件，面试时间应为修改后的时间。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击导航栏中的“日历”菜单，拖动某个非今日的事件项到非今日的另一天中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击该事件，其日期应为修改后的日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击导航栏中的“日历”菜单，拖动某个非今日的事件项到今天的另一天中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出提示框“修改成功”。事件应出现在修改后日期的日期框中。同时右上角的今日事件消息计数值减一。再次点击该事件，面试时间应为修改后的时间。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击导航栏中的“日历”菜单，拖动今日之后的事件项到今日或者今日之前</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击该事件，其日期应为今天，同时右上角的今日事件消息计数值加一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>右上角的待评价面试消息计数值加一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击导航栏中的“日历”菜单，点击今日之后的事件项，修改日期到今日或者今日之前</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>右上角的待评价面试消息计数值减一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击导航栏中的“日历”菜单，点击今日或今日之前未评论过的事件项，修改日期到今日之后</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击导航栏中的“日历”菜单，拖动今日或今日之前未评论过的事件项到今日之后</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击导航栏中的“日历”菜单，点击今日或今日之前已评论过的事件项，修改日期到今日之后</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>右上角的待评价面试消息计数值不变</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击导航栏中的“日历”菜单，拖动今日或今日之前已评论过的事件项到今日之后</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击导航栏中的“日历”菜单，单击今日之前的某个未评价过的事件项，然后在弹出的修改面试预约窗口中点击删除按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该事件应从日历上消失，同时右上角待评价面试消息计数值减一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>events2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>events3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>events4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>events5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>events6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>events7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>events8</t>
-  </si>
-  <si>
-    <t>events1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>events9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>events10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>events11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>events12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>events13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>events14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>events15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>events16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>events17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>events18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>events19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>events20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>events21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>events22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>events23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>events24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>events25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>events26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>events27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>events28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>events29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>events30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>events31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>events32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>events33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>events34</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>events35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>events36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>events37</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>events38</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>settings users 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>settings users 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>settings users 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>settings mails 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>settings mails 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>settings mails 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击settings users 2步骤中的保存按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击settings users 2步骤中的取消按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>settings users 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>settings users 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>settings users 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>settings users 7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>settings users 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击settings users 7步骤中的保存按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>settings users 9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>settings users 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>settings users 11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>settings users 12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>settings ec 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击settings ec 1步骤中的添加按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>settings ec 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在settings ec 2中的名称和系数输入框输入名称和系数，点击添加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在settings ec 2中的名称和系数输入框输入名称和系数，点击添加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在settings ec 2步骤中，点击添加，然后点击取消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在settings ec 2步骤中点击某一项的删除按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>settings ec 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>settings ec 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>settings ec 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>settings ec 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>settings eventsettings 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击settings eventsettings 1中的“创建面试邀请tab”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>settings eventsettings 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击settings eventsettings 1中的“修改面试邀请tab”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击settings eventsettings 1中的“取消面试邀请tab”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>settings eventsettings 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>settings eventsettings 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>settings roles 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>settings roles 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在settings roles 2中，填入角色名称，点击保存按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>settings roles 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>settings roles 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在settings roles 2中，点击取消按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在settings roles 2中，勾选“全部选择”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在settings roles 2中，勾选“应聘”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在settings roles 2中，取消勾选“应聘”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在settings roles 2中，勾选“待定”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在settings roles 2中，取消勾选“待定”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在settings roles 2中，勾选新应聘，待定和通过三个checkbox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>settings roles 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>settings roles 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>settings roles 7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>settings roles 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>settings roles 9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>settings roles 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>settings roles 11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>settings roles 12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在settings roles 12中，填入角色名称，点击保存按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在settings roles 12中，填入角色名称，点击保存按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在settings roles 12中，点击取消按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在settings roles 12中，勾选“全部选择”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在settings roles 12中，勾选“应聘”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在settings roles 12中，取消勾选“应聘”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在settings roles 12中，勾选“待定”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在settings roles 12中，取消勾选“待定”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在settings roles 12中，勾选新应聘，待定和通过三个checkbox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>settings roles 13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>settings roles 14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>settings roles 15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>settings roles 16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>settings roles 17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>settings roles 18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>settings roles 19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>settings roles 20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>settings roles 21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>settings roles 22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interviews reviews 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interviews reviews 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interviews reviews 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在interviews reviews 2中点击搜索按钮后，点击清空按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interviews reviews 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在interviews reviews 3中点击搜索按钮后，点击清空按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interviews reviews 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interviews reviews 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在interviews reviews 6中点击搜索按钮后，点击清空按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interviews reviews 7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interviews reviews 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击interviews reviews 8中的返回列表按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interviews reviews 9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interviews reviews 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击interviews reviews 10中的通过按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击interviews reviews 10中的拒绝按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击interviews reviews 10中的取消按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interviews reviews 11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interviews reviews 12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interviews reviews 13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interviews list 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interviews list 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在interviews list 2中点击搜索按钮后，点击清空按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interviews list 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interviews list 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在interviews list 4中点击搜索按钮后，点击清空按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interviews list 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在interviews list 5中点击搜索按钮后，点击清空按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interviews list 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interviews list 7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interviews list 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interviews list 9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interviews list 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在interviews list 9中点击返回列表按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在interviews list 9中点击拒绝按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在interviews list 9中点击接受按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interviews list 11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interviews list 12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interviews offer 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interviews offer 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在interviews offer 2中点击搜索按钮后，点击清空按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interviews offer 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interviews offer 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在interviews offer 4中点击搜索按钮后，点击清空按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interviews offer 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interviews onboards 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interviews onboards 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interviews onboards 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在interviews onboards 2中点击搜索按钮后，点击清空按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interviews onboards 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interviews onboards 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interviews onboards 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interviews onboards 7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interviews onboards 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interviews onboards 9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interviews onboards 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interviews onboards 11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在interviews onboards 10中点击搜索按钮后，点击清空按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在界面勾选记住我，输入正确用户名和密码登陆,登陆后退出浏览器，再次打开浏览器。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开网站，应可以直接进入主页/today</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应进入/login登陆界面，要求登陆后才能进入主页/today</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在界面取消勾选记住我，输入正确用户名和密码登陆。登陆后退出浏览器，再次打开浏览器，打开网站。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码不足六位不能点击按钮。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>forgot3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码不足六位不能点击按钮。若重置链接无效，显示“重置链接无效”。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>forgot4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若重置链接有效，显示“密码重置成功”。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在forgot3中重置密码后，打开/login页面，用重置后的密码登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应能成功登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>forgot5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>激活成功则显示“您的注册已激活，请使用邮箱和密码登陆”。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在activate1中成功激活邮箱后，用注册的邮箱和密码登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应能成功登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>激活失败则显示“您的注册激活失败。可能因为该公司或邮箱已注册。”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>activate3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>activate2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>activate4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在activate3中激活邮箱失败后，用注册的邮箱和密码登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应能不能成功登陆</t>
+    <t>底部pagination条应显示总计数和分页数。总计数为0时pagination条应不显示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底部pagination条应显示总计数和分页数。总计数为0时pagination条显示“没有可以显示的项”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底部pagination条应显示总计数和分页数。总计数为0时pagination条显示“没有可以显示的项”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底部pagination条应显示总计数和分页数。总计数为0时pagination条显示“没有可以显示的项”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底部pagination条应显示总计数和分页数。总计数为0时pagination条显示“没有可以显示的项”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底部pagination条应显示总计数和分页数。总计数为0时pagination条显示“没有可以显示的项”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底部pagination条应显示总计数和分页数，分页数=总计数/50。总计数为0时pagination条应不显示。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4486,7 +4518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
+    <sheetView topLeftCell="A92" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
       <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
@@ -4629,7 +4661,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4637,7 +4669,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4677,7 +4709,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4685,7 +4717,7 @@
         <v>21</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4781,7 +4813,7 @@
         <v>21</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -4793,7 +4825,7 @@
         <v>6</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -4833,7 +4865,7 @@
         <v>1</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -4845,7 +4877,7 @@
         <v>6</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -4877,7 +4909,7 @@
         <v>19</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -4885,7 +4917,7 @@
         <v>1</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -4897,7 +4929,7 @@
         <v>6</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -4937,7 +4969,7 @@
         <v>1</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -5033,7 +5065,7 @@
         <v>21</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -5041,7 +5073,7 @@
         <v>6</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -5073,7 +5105,7 @@
         <v>19</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -5081,7 +5113,7 @@
         <v>1</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -5089,7 +5121,7 @@
         <v>6</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -5129,7 +5161,7 @@
         <v>1</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -5137,7 +5169,7 @@
         <v>6</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -5169,7 +5201,7 @@
         <v>19</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -5177,7 +5209,7 @@
         <v>1</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
   </sheetData>
@@ -7905,8 +7937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B336"/>
   <sheetViews>
-    <sheetView topLeftCell="A302" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
-      <selection activeCell="B325" sqref="B325"/>
+    <sheetView topLeftCell="A330" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
+      <selection activeCell="B319" sqref="B319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7919,7 +7951,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -7927,7 +7959,7 @@
         <v>67</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7935,7 +7967,7 @@
         <v>82</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -7943,7 +7975,7 @@
         <v>68</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -7959,7 +7991,7 @@
         <v>70</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30">
@@ -7967,7 +7999,7 @@
         <v>71</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -7979,7 +8011,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -7987,7 +8019,7 @@
         <v>67</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -7995,7 +8027,7 @@
         <v>82</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -8003,7 +8035,7 @@
         <v>68</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -8019,7 +8051,7 @@
         <v>70</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -8027,7 +8059,7 @@
         <v>71</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -8035,7 +8067,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -8043,7 +8075,7 @@
         <v>67</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -8051,7 +8083,7 @@
         <v>82</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -8059,7 +8091,7 @@
         <v>68</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -8075,7 +8107,7 @@
         <v>70</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -8083,7 +8115,7 @@
         <v>71</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -8091,7 +8123,7 @@
         <v>6</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -8099,7 +8131,7 @@
         <v>67</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -8107,7 +8139,7 @@
         <v>82</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -8115,7 +8147,7 @@
         <v>68</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -8131,7 +8163,7 @@
         <v>70</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -8139,7 +8171,7 @@
         <v>71</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -8147,7 +8179,7 @@
         <v>6</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -8155,7 +8187,7 @@
         <v>67</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -8163,7 +8195,7 @@
         <v>82</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -8171,7 +8203,7 @@
         <v>68</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -8187,7 +8219,7 @@
         <v>70</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -8195,7 +8227,7 @@
         <v>71</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -8203,7 +8235,7 @@
         <v>6</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -8211,7 +8243,7 @@
         <v>67</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -8219,7 +8251,7 @@
         <v>82</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -8227,7 +8259,7 @@
         <v>68</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -8243,7 +8275,7 @@
         <v>70</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -8251,7 +8283,7 @@
         <v>71</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -8259,7 +8291,7 @@
         <v>6</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -8267,7 +8299,7 @@
         <v>67</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -8275,7 +8307,7 @@
         <v>82</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -8283,7 +8315,7 @@
         <v>68</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -8299,7 +8331,7 @@
         <v>70</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -8307,7 +8339,7 @@
         <v>71</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -8315,7 +8347,7 @@
         <v>6</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -8323,7 +8355,7 @@
         <v>67</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -8331,7 +8363,7 @@
         <v>82</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -8339,7 +8371,7 @@
         <v>68</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -8355,7 +8387,7 @@
         <v>70</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -8363,7 +8395,7 @@
         <v>71</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -8371,7 +8403,7 @@
         <v>6</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -8379,7 +8411,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -8387,7 +8419,7 @@
         <v>82</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -8395,7 +8427,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -8411,7 +8443,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -8419,7 +8451,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -8427,7 +8459,7 @@
         <v>6</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -8435,7 +8467,7 @@
         <v>67</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -8443,7 +8475,7 @@
         <v>82</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -8451,7 +8483,7 @@
         <v>68</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -8467,7 +8499,7 @@
         <v>70</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -8475,7 +8507,7 @@
         <v>71</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -8483,7 +8515,7 @@
         <v>6</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -8491,7 +8523,7 @@
         <v>67</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -8499,7 +8531,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -8507,7 +8539,7 @@
         <v>68</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -8523,7 +8555,7 @@
         <v>70</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -8531,7 +8563,7 @@
         <v>71</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -8767,7 +8799,7 @@
         <v>6</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -8775,7 +8807,7 @@
         <v>67</v>
       </c>
       <c r="B123" s="17" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -8783,7 +8815,7 @@
         <v>82</v>
       </c>
       <c r="B124" s="17" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -8791,7 +8823,7 @@
         <v>68</v>
       </c>
       <c r="B125" s="17" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -8807,7 +8839,7 @@
         <v>70</v>
       </c>
       <c r="B127" s="17" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -8815,7 +8847,7 @@
         <v>71</v>
       </c>
       <c r="B128" s="17" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -8823,7 +8855,7 @@
         <v>6</v>
       </c>
       <c r="B130" s="14" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -8831,7 +8863,7 @@
         <v>67</v>
       </c>
       <c r="B131" s="17" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -8839,7 +8871,7 @@
         <v>82</v>
       </c>
       <c r="B132" s="17" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -8847,7 +8879,7 @@
         <v>68</v>
       </c>
       <c r="B133" s="17" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -8863,7 +8895,7 @@
         <v>70</v>
       </c>
       <c r="B135" s="17" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="30">
@@ -8871,7 +8903,7 @@
         <v>71</v>
       </c>
       <c r="B136" s="17" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -8879,7 +8911,7 @@
         <v>6</v>
       </c>
       <c r="B138" s="14" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -8887,7 +8919,7 @@
         <v>67</v>
       </c>
       <c r="B139" s="17" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -8895,7 +8927,7 @@
         <v>82</v>
       </c>
       <c r="B140" s="17" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -8903,7 +8935,7 @@
         <v>68</v>
       </c>
       <c r="B141" s="17" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -8919,15 +8951,15 @@
         <v>70</v>
       </c>
       <c r="B143" s="17" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B144" s="17" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -8939,7 +8971,7 @@
         <v>6</v>
       </c>
       <c r="B146" s="14" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -8947,7 +8979,7 @@
         <v>67</v>
       </c>
       <c r="B147" s="17" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -8955,7 +8987,7 @@
         <v>82</v>
       </c>
       <c r="B148" s="17" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -8963,7 +8995,7 @@
         <v>68</v>
       </c>
       <c r="B149" s="17" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -8979,15 +9011,15 @@
         <v>70</v>
       </c>
       <c r="B151" s="17" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B152" s="17" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -8995,7 +9027,7 @@
         <v>6</v>
       </c>
       <c r="B154" s="14" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -9003,7 +9035,7 @@
         <v>67</v>
       </c>
       <c r="B155" s="17" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -9011,7 +9043,7 @@
         <v>82</v>
       </c>
       <c r="B156" s="17" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -9019,7 +9051,7 @@
         <v>68</v>
       </c>
       <c r="B157" s="17" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -9035,15 +9067,15 @@
         <v>70</v>
       </c>
       <c r="B159" s="17" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B160" s="17" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -9051,7 +9083,7 @@
         <v>6</v>
       </c>
       <c r="B162" s="14" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -9059,7 +9091,7 @@
         <v>67</v>
       </c>
       <c r="B163" s="17" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -9067,7 +9099,7 @@
         <v>82</v>
       </c>
       <c r="B164" s="17" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -9075,7 +9107,7 @@
         <v>68</v>
       </c>
       <c r="B165" s="17" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -9091,15 +9123,15 @@
         <v>70</v>
       </c>
       <c r="B167" s="17" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="30">
       <c r="A168" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="B168" s="17" t="s">
         <v>438</v>
-      </c>
-      <c r="B168" s="17" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -9107,7 +9139,7 @@
         <v>6</v>
       </c>
       <c r="B170" s="14" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -9115,7 +9147,7 @@
         <v>67</v>
       </c>
       <c r="B171" s="17" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -9123,7 +9155,7 @@
         <v>82</v>
       </c>
       <c r="B172" s="17" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -9131,7 +9163,7 @@
         <v>68</v>
       </c>
       <c r="B173" s="17" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -9147,15 +9179,15 @@
         <v>70</v>
       </c>
       <c r="B175" s="17" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="30">
       <c r="A176" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B176" s="17" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -9163,7 +9195,7 @@
         <v>6</v>
       </c>
       <c r="B178" s="14" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -9171,7 +9203,7 @@
         <v>67</v>
       </c>
       <c r="B179" s="17" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -9179,7 +9211,7 @@
         <v>82</v>
       </c>
       <c r="B180" s="17" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -9187,7 +9219,7 @@
         <v>68</v>
       </c>
       <c r="B181" s="17" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -9203,15 +9235,15 @@
         <v>70</v>
       </c>
       <c r="B183" s="17" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B184" s="17" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -9223,7 +9255,7 @@
         <v>6</v>
       </c>
       <c r="B186" s="14" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -9231,7 +9263,7 @@
         <v>67</v>
       </c>
       <c r="B187" s="17" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -9239,7 +9271,7 @@
         <v>82</v>
       </c>
       <c r="B188" s="17" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -9247,7 +9279,7 @@
         <v>68</v>
       </c>
       <c r="B189" s="17" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -9263,15 +9295,15 @@
         <v>70</v>
       </c>
       <c r="B191" s="17" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="45">
       <c r="A192" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B192" s="17" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -9279,7 +9311,7 @@
         <v>6</v>
       </c>
       <c r="B194" s="14" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -9287,7 +9319,7 @@
         <v>67</v>
       </c>
       <c r="B195" s="17" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -9295,7 +9327,7 @@
         <v>82</v>
       </c>
       <c r="B196" s="17" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -9303,7 +9335,7 @@
         <v>68</v>
       </c>
       <c r="B197" s="17" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -9319,15 +9351,15 @@
         <v>70</v>
       </c>
       <c r="B199" s="17" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="45">
       <c r="A200" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B200" s="17" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -9335,7 +9367,7 @@
         <v>6</v>
       </c>
       <c r="B202" s="14" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -9343,7 +9375,7 @@
         <v>67</v>
       </c>
       <c r="B203" s="17" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -9351,7 +9383,7 @@
         <v>82</v>
       </c>
       <c r="B204" s="17" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -9359,7 +9391,7 @@
         <v>68</v>
       </c>
       <c r="B205" s="17" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -9375,15 +9407,15 @@
         <v>70</v>
       </c>
       <c r="B207" s="17" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B208" s="17" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -9395,7 +9427,7 @@
         <v>6</v>
       </c>
       <c r="B210" s="14" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -9403,7 +9435,7 @@
         <v>67</v>
       </c>
       <c r="B211" s="17" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -9411,7 +9443,7 @@
         <v>82</v>
       </c>
       <c r="B212" s="17" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -9419,7 +9451,7 @@
         <v>68</v>
       </c>
       <c r="B213" s="17" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -9435,15 +9467,15 @@
         <v>70</v>
       </c>
       <c r="B215" s="17" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B216" s="17" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -9455,7 +9487,7 @@
         <v>6</v>
       </c>
       <c r="B218" s="14" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -9463,7 +9495,7 @@
         <v>67</v>
       </c>
       <c r="B219" s="17" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -9471,7 +9503,7 @@
         <v>82</v>
       </c>
       <c r="B220" s="17" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -9479,7 +9511,7 @@
         <v>68</v>
       </c>
       <c r="B221" s="17" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -9495,15 +9527,15 @@
         <v>70</v>
       </c>
       <c r="B223" s="17" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B224" s="17" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -9515,7 +9547,7 @@
         <v>6</v>
       </c>
       <c r="B226" s="14" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -9523,7 +9555,7 @@
         <v>67</v>
       </c>
       <c r="B227" s="17" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -9531,7 +9563,7 @@
         <v>82</v>
       </c>
       <c r="B228" s="17" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -9539,7 +9571,7 @@
         <v>68</v>
       </c>
       <c r="B229" s="17" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -9555,15 +9587,15 @@
         <v>70</v>
       </c>
       <c r="B231" s="17" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B232" s="17" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -9575,7 +9607,7 @@
         <v>6</v>
       </c>
       <c r="B234" s="14" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -9583,7 +9615,7 @@
         <v>67</v>
       </c>
       <c r="B235" s="17" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -9591,7 +9623,7 @@
         <v>82</v>
       </c>
       <c r="B236" s="17" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -9599,7 +9631,7 @@
         <v>68</v>
       </c>
       <c r="B237" s="17" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -9615,15 +9647,15 @@
         <v>70</v>
       </c>
       <c r="B239" s="17" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B240" s="17" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -9635,7 +9667,7 @@
         <v>6</v>
       </c>
       <c r="B242" s="14" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -9643,7 +9675,7 @@
         <v>67</v>
       </c>
       <c r="B243" s="17" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -9651,7 +9683,7 @@
         <v>82</v>
       </c>
       <c r="B244" s="17" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -9659,7 +9691,7 @@
         <v>68</v>
       </c>
       <c r="B245" s="17" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -9675,15 +9707,15 @@
         <v>70</v>
       </c>
       <c r="B247" s="17" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B248" s="17" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -9695,7 +9727,7 @@
         <v>6</v>
       </c>
       <c r="B250" s="14" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -9703,7 +9735,7 @@
         <v>67</v>
       </c>
       <c r="B251" s="17" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -9711,7 +9743,7 @@
         <v>82</v>
       </c>
       <c r="B252" s="17" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -9719,7 +9751,7 @@
         <v>68</v>
       </c>
       <c r="B253" s="17" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -9735,15 +9767,15 @@
         <v>70</v>
       </c>
       <c r="B255" s="17" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B256" s="17" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -9755,7 +9787,7 @@
         <v>6</v>
       </c>
       <c r="B258" s="14" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -9763,7 +9795,7 @@
         <v>67</v>
       </c>
       <c r="B259" s="17" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -9771,7 +9803,7 @@
         <v>82</v>
       </c>
       <c r="B260" s="17" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -9779,7 +9811,7 @@
         <v>68</v>
       </c>
       <c r="B261" s="17" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -9795,15 +9827,15 @@
         <v>70</v>
       </c>
       <c r="B263" s="17" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="30">
       <c r="A264" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B264" s="17" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -9811,7 +9843,7 @@
         <v>6</v>
       </c>
       <c r="B266" s="14" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -9819,7 +9851,7 @@
         <v>67</v>
       </c>
       <c r="B267" s="17" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -9827,7 +9859,7 @@
         <v>82</v>
       </c>
       <c r="B268" s="17" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -9835,7 +9867,7 @@
         <v>68</v>
       </c>
       <c r="B269" s="17" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -9851,15 +9883,15 @@
         <v>70</v>
       </c>
       <c r="B271" s="17" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="30">
       <c r="A272" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B272" s="17" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -9867,7 +9899,7 @@
         <v>6</v>
       </c>
       <c r="B274" s="14" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -9875,7 +9907,7 @@
         <v>67</v>
       </c>
       <c r="B275" s="17" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -9883,7 +9915,7 @@
         <v>82</v>
       </c>
       <c r="B276" s="17" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -9891,7 +9923,7 @@
         <v>68</v>
       </c>
       <c r="B277" s="17" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -9907,15 +9939,15 @@
         <v>70</v>
       </c>
       <c r="B279" s="17" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B280" s="17" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -9923,7 +9955,7 @@
         <v>6</v>
       </c>
       <c r="B282" s="14" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -9931,7 +9963,7 @@
         <v>67</v>
       </c>
       <c r="B283" s="17" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -9939,7 +9971,7 @@
         <v>82</v>
       </c>
       <c r="B284" s="17" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -9947,7 +9979,7 @@
         <v>68</v>
       </c>
       <c r="B285" s="17" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -9963,15 +9995,15 @@
         <v>70</v>
       </c>
       <c r="B287" s="17" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B288" s="17" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -9979,7 +10011,7 @@
         <v>6</v>
       </c>
       <c r="B290" s="14" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -9987,7 +10019,7 @@
         <v>67</v>
       </c>
       <c r="B291" s="17" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -9995,7 +10027,7 @@
         <v>82</v>
       </c>
       <c r="B292" s="17" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -10003,7 +10035,7 @@
         <v>68</v>
       </c>
       <c r="B293" s="17" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -10019,15 +10051,15 @@
         <v>70</v>
       </c>
       <c r="B295" s="17" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B296" s="17" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -10035,7 +10067,7 @@
         <v>6</v>
       </c>
       <c r="B298" s="14" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -10043,7 +10075,7 @@
         <v>67</v>
       </c>
       <c r="B299" s="17" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -10051,7 +10083,7 @@
         <v>82</v>
       </c>
       <c r="B300" s="17" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -10059,7 +10091,7 @@
         <v>68</v>
       </c>
       <c r="B301" s="17" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -10075,15 +10107,15 @@
         <v>70</v>
       </c>
       <c r="B303" s="17" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B304" s="17" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -10091,7 +10123,7 @@
         <v>6</v>
       </c>
       <c r="B306" s="14" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -10099,7 +10131,7 @@
         <v>67</v>
       </c>
       <c r="B307" s="17" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -10107,7 +10139,7 @@
         <v>82</v>
       </c>
       <c r="B308" s="17" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -10115,7 +10147,7 @@
         <v>68</v>
       </c>
       <c r="B309" s="17" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -10131,23 +10163,23 @@
         <v>70</v>
       </c>
       <c r="B311" s="17" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B312" s="17" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="9" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B314" s="14" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -10155,7 +10187,7 @@
         <v>67</v>
       </c>
       <c r="B315" s="17" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -10163,7 +10195,7 @@
         <v>82</v>
       </c>
       <c r="B316" s="17" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -10171,7 +10203,7 @@
         <v>68</v>
       </c>
       <c r="B317" s="17" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -10187,23 +10219,23 @@
         <v>70</v>
       </c>
       <c r="B319" s="17" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B320" s="17" t="s">
-        <v>457</v>
+        <v>677</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="9" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B322" s="14" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -10211,7 +10243,7 @@
         <v>67</v>
       </c>
       <c r="B323" s="17" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -10219,7 +10251,7 @@
         <v>82</v>
       </c>
       <c r="B324" s="17" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -10227,7 +10259,7 @@
         <v>68</v>
       </c>
       <c r="B325" s="17" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -10243,23 +10275,23 @@
         <v>70</v>
       </c>
       <c r="B327" s="17" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B328" s="17" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="9" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B330" s="14" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -10267,7 +10299,7 @@
         <v>67</v>
       </c>
       <c r="B331" s="17" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -10275,7 +10307,7 @@
         <v>82</v>
       </c>
       <c r="B332" s="17" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -10283,7 +10315,7 @@
         <v>68</v>
       </c>
       <c r="B333" s="17" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -10299,15 +10331,15 @@
         <v>70</v>
       </c>
       <c r="B335" s="17" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B336" s="17" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -10449,7 +10481,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -11164,7 +11196,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -11224,7 +11256,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -11284,7 +11316,7 @@
         <v>25</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -11340,7 +11372,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -11396,7 +11428,7 @@
         <v>25</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -11452,7 +11484,7 @@
         <v>25</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -11492,7 +11524,7 @@
         <v>0</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -11508,7 +11540,7 @@
         <v>25</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -11548,7 +11580,7 @@
         <v>0</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="30">
@@ -11564,7 +11596,7 @@
         <v>25</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -11604,7 +11636,7 @@
         <v>0</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -11620,7 +11652,7 @@
         <v>25</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -11660,7 +11692,7 @@
         <v>0</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -11676,7 +11708,7 @@
         <v>25</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -11732,7 +11764,7 @@
         <v>25</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -11772,7 +11804,7 @@
         <v>0</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -11788,7 +11820,7 @@
         <v>25</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -11828,7 +11860,7 @@
         <v>0</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="30">
@@ -11844,7 +11876,7 @@
         <v>66</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -11884,7 +11916,7 @@
         <v>70</v>
       </c>
       <c r="B102" s="17" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -11900,7 +11932,7 @@
         <v>66</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -11940,7 +11972,7 @@
         <v>70</v>
       </c>
       <c r="B110" s="17" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -11956,7 +11988,7 @@
         <v>25</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -12012,7 +12044,7 @@
         <v>25</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -12068,7 +12100,7 @@
         <v>6</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -12108,7 +12140,7 @@
         <v>0</v>
       </c>
       <c r="B134" s="15" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -12124,7 +12156,7 @@
         <v>6</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -12164,7 +12196,7 @@
         <v>0</v>
       </c>
       <c r="B142" s="15" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -12180,7 +12212,7 @@
         <v>6</v>
       </c>
       <c r="B145" s="14" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -12220,7 +12252,7 @@
         <v>0</v>
       </c>
       <c r="B150" s="15" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -12236,7 +12268,7 @@
         <v>6</v>
       </c>
       <c r="B153" s="14" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -12276,7 +12308,7 @@
         <v>0</v>
       </c>
       <c r="B158" s="15" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -12292,7 +12324,7 @@
         <v>6</v>
       </c>
       <c r="B161" s="14" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -12332,7 +12364,7 @@
         <v>0</v>
       </c>
       <c r="B166" s="15" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -12348,7 +12380,7 @@
         <v>6</v>
       </c>
       <c r="B169" s="14" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -12404,7 +12436,7 @@
         <v>6</v>
       </c>
       <c r="B177" s="14" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -12444,7 +12476,7 @@
         <v>0</v>
       </c>
       <c r="B182" s="15" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="45">
@@ -12460,7 +12492,7 @@
         <v>6</v>
       </c>
       <c r="B185" s="14" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -12500,7 +12532,7 @@
         <v>0</v>
       </c>
       <c r="B190" s="15" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="45">
@@ -12516,7 +12548,7 @@
         <v>6</v>
       </c>
       <c r="B193" s="14" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -12556,7 +12588,7 @@
         <v>0</v>
       </c>
       <c r="B198" s="15" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="45">
@@ -12572,7 +12604,7 @@
         <v>6</v>
       </c>
       <c r="B201" s="14" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -12628,7 +12660,7 @@
         <v>6</v>
       </c>
       <c r="B209" s="14" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -12684,7 +12716,7 @@
         <v>6</v>
       </c>
       <c r="B217" s="14" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -12724,7 +12756,7 @@
         <v>0</v>
       </c>
       <c r="B222" s="15" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -12740,7 +12772,7 @@
         <v>6</v>
       </c>
       <c r="B225" s="14" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -12780,7 +12812,7 @@
         <v>0</v>
       </c>
       <c r="B230" s="15" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -12796,7 +12828,7 @@
         <v>66</v>
       </c>
       <c r="B233" s="20" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -12836,7 +12868,7 @@
         <v>70</v>
       </c>
       <c r="B238" s="17" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -12852,7 +12884,7 @@
         <v>66</v>
       </c>
       <c r="B241" s="20" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -12892,7 +12924,7 @@
         <v>70</v>
       </c>
       <c r="B246" s="17" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -12908,7 +12940,7 @@
         <v>66</v>
       </c>
       <c r="B249" s="20" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -12948,7 +12980,7 @@
         <v>70</v>
       </c>
       <c r="B254" s="17" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -12964,7 +12996,7 @@
         <v>66</v>
       </c>
       <c r="B257" s="20" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -13004,7 +13036,7 @@
         <v>70</v>
       </c>
       <c r="B262" s="17" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -13020,7 +13052,7 @@
         <v>66</v>
       </c>
       <c r="B265" s="20" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -13060,7 +13092,7 @@
         <v>70</v>
       </c>
       <c r="B270" s="17" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -13076,7 +13108,7 @@
         <v>66</v>
       </c>
       <c r="B273" s="20" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -13116,7 +13148,7 @@
         <v>70</v>
       </c>
       <c r="B278" s="17" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -13132,7 +13164,7 @@
         <v>66</v>
       </c>
       <c r="B281" s="20" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -13172,7 +13204,7 @@
         <v>70</v>
       </c>
       <c r="B286" s="17" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -13188,7 +13220,7 @@
         <v>6</v>
       </c>
       <c r="B289" s="14" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -13244,7 +13276,7 @@
         <v>6</v>
       </c>
       <c r="B297" s="14" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -13284,7 +13316,7 @@
         <v>0</v>
       </c>
       <c r="B302" s="15" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -13300,7 +13332,7 @@
         <v>6</v>
       </c>
       <c r="B305" s="14" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -13340,7 +13372,7 @@
         <v>0</v>
       </c>
       <c r="B310" s="15" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -13356,7 +13388,7 @@
         <v>66</v>
       </c>
       <c r="B313" s="20" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -13396,7 +13428,7 @@
         <v>70</v>
       </c>
       <c r="B318" s="17" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -13412,7 +13444,7 @@
         <v>66</v>
       </c>
       <c r="B321" s="20" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -13452,7 +13484,7 @@
         <v>70</v>
       </c>
       <c r="B326" s="17" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -13468,7 +13500,7 @@
         <v>66</v>
       </c>
       <c r="B329" s="20" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -13508,7 +13540,7 @@
         <v>70</v>
       </c>
       <c r="B334" s="17" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -13524,7 +13556,7 @@
         <v>66</v>
       </c>
       <c r="B337" s="20" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -13564,7 +13596,7 @@
         <v>70</v>
       </c>
       <c r="B342" s="17" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -13580,7 +13612,7 @@
         <v>66</v>
       </c>
       <c r="B345" s="20" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -13620,7 +13652,7 @@
         <v>70</v>
       </c>
       <c r="B350" s="17" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -13636,7 +13668,7 @@
         <v>66</v>
       </c>
       <c r="B353" s="20" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -13676,7 +13708,7 @@
         <v>70</v>
       </c>
       <c r="B358" s="17" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -13692,7 +13724,7 @@
         <v>66</v>
       </c>
       <c r="B361" s="20" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -13732,7 +13764,7 @@
         <v>70</v>
       </c>
       <c r="B366" s="17" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -13748,7 +13780,7 @@
         <v>6</v>
       </c>
       <c r="B369" s="14" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -13891,7 +13923,7 @@
         <v>66</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -13951,7 +13983,7 @@
         <v>66</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -14011,7 +14043,7 @@
         <v>66</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -14051,7 +14083,7 @@
         <v>70</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -14071,7 +14103,7 @@
         <v>66</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -14131,7 +14163,7 @@
         <v>66</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -14171,7 +14203,7 @@
         <v>70</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -14187,7 +14219,7 @@
         <v>66</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -14247,7 +14279,7 @@
         <v>66</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -14287,7 +14319,7 @@
         <v>70</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -14303,7 +14335,7 @@
         <v>66</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -14359,7 +14391,7 @@
         <v>66</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -14399,7 +14431,7 @@
         <v>70</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -14415,7 +14447,7 @@
         <v>66</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -14471,7 +14503,7 @@
         <v>66</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -14511,7 +14543,7 @@
         <v>70</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="30">
@@ -14527,7 +14559,7 @@
         <v>66</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -14567,7 +14599,7 @@
         <v>70</v>
       </c>
       <c r="B102" s="17" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="30">
@@ -14583,7 +14615,7 @@
         <v>66</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -14623,7 +14655,7 @@
         <v>70</v>
       </c>
       <c r="B110" s="17" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -14639,7 +14671,7 @@
         <v>66</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -14695,7 +14727,7 @@
         <v>66</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -14751,7 +14783,7 @@
         <v>66</v>
       </c>
       <c r="B130" s="20" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -14791,7 +14823,7 @@
         <v>70</v>
       </c>
       <c r="B135" s="17" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -14807,7 +14839,7 @@
         <v>66</v>
       </c>
       <c r="B138" s="20" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -14903,7 +14935,7 @@
         <v>70</v>
       </c>
       <c r="B151" s="17" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -14919,7 +14951,7 @@
         <v>66</v>
       </c>
       <c r="B154" s="20" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -14975,7 +15007,7 @@
         <v>66</v>
       </c>
       <c r="B162" s="20" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -15015,7 +15047,7 @@
         <v>70</v>
       </c>
       <c r="B167" s="17" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -15031,7 +15063,7 @@
         <v>66</v>
       </c>
       <c r="B170" s="20" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -15087,7 +15119,7 @@
         <v>66</v>
       </c>
       <c r="B178" s="20" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -15143,7 +15175,7 @@
         <v>66</v>
       </c>
       <c r="B186" s="20" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -15199,7 +15231,7 @@
         <v>66</v>
       </c>
       <c r="B194" s="20" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -15239,7 +15271,7 @@
         <v>70</v>
       </c>
       <c r="B199" s="17" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -15255,7 +15287,7 @@
         <v>336</v>
       </c>
       <c r="B202" s="20" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -15295,7 +15327,7 @@
         <v>70</v>
       </c>
       <c r="B207" s="17" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="30">
@@ -15311,7 +15343,7 @@
         <v>66</v>
       </c>
       <c r="B210" s="20" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -15351,7 +15383,7 @@
         <v>70</v>
       </c>
       <c r="B215" s="17" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="45">
@@ -15367,7 +15399,7 @@
         <v>66</v>
       </c>
       <c r="B218" s="20" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -15423,7 +15455,7 @@
         <v>66</v>
       </c>
       <c r="B226" s="20" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -15479,7 +15511,7 @@
         <v>66</v>
       </c>
       <c r="B234" s="20" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -15519,7 +15551,7 @@
         <v>70</v>
       </c>
       <c r="B239" s="17" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -15535,7 +15567,7 @@
         <v>66</v>
       </c>
       <c r="B242" s="20" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -15591,7 +15623,7 @@
         <v>66</v>
       </c>
       <c r="B250" s="20" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -15631,7 +15663,7 @@
         <v>70</v>
       </c>
       <c r="B255" s="17" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -15647,7 +15679,7 @@
         <v>66</v>
       </c>
       <c r="B258" s="20" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -15703,7 +15735,7 @@
         <v>66</v>
       </c>
       <c r="B266" s="20" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -15759,7 +15791,7 @@
         <v>66</v>
       </c>
       <c r="B274" s="20" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -15799,7 +15831,7 @@
         <v>70</v>
       </c>
       <c r="B279" s="17" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -15819,7 +15851,7 @@
         <v>66</v>
       </c>
       <c r="B282" s="20" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -15879,7 +15911,7 @@
         <v>66</v>
       </c>
       <c r="B290" s="20" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -15939,7 +15971,7 @@
         <v>66</v>
       </c>
       <c r="B298" s="20" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -15995,7 +16027,7 @@
         <v>66</v>
       </c>
       <c r="B306" s="20" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -16055,7 +16087,7 @@
         <v>66</v>
       </c>
       <c r="B314" s="20" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -16111,7 +16143,7 @@
         <v>66</v>
       </c>
       <c r="B322" s="20" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -16171,7 +16203,7 @@
         <v>66</v>
       </c>
       <c r="B330" s="20" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -16227,7 +16259,7 @@
         <v>66</v>
       </c>
       <c r="B338" s="20" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -16267,7 +16299,7 @@
         <v>70</v>
       </c>
       <c r="B343" s="17" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -16294,8 +16326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B87"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -16351,12 +16383,12 @@
         <v>372</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30">
+    <row r="7" spans="1:2" ht="45">
       <c r="A7" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>374</v>
+        <v>688</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -16380,7 +16412,7 @@
         <v>82</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -16388,7 +16420,7 @@
         <v>68</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -16404,15 +16436,15 @@
         <v>70</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="30">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="45">
       <c r="A15" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>374</v>
+        <v>679</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -16420,7 +16452,7 @@
         <v>66</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -16436,7 +16468,7 @@
         <v>82</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -16444,7 +16476,7 @@
         <v>68</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -16460,15 +16492,15 @@
         <v>70</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="30">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="45">
       <c r="A23" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>374</v>
+        <v>679</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -16476,7 +16508,7 @@
         <v>66</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -16484,7 +16516,7 @@
         <v>67</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -16492,7 +16524,7 @@
         <v>82</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -16500,7 +16532,7 @@
         <v>68</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>384</v>
+        <v>680</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -16516,15 +16548,15 @@
         <v>70</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="30">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="45">
       <c r="A31" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>386</v>
+        <v>681</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -16532,7 +16564,7 @@
         <v>66</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -16540,7 +16572,7 @@
         <v>67</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -16548,7 +16580,7 @@
         <v>82</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -16556,7 +16588,7 @@
         <v>68</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -16572,15 +16604,15 @@
         <v>70</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="30">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="45">
       <c r="A39" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>386</v>
+        <v>678</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -16588,7 +16620,7 @@
         <v>66</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -16596,7 +16628,7 @@
         <v>67</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -16604,7 +16636,7 @@
         <v>82</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -16612,7 +16644,7 @@
         <v>68</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -16628,15 +16660,15 @@
         <v>70</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="30">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="45">
       <c r="A47" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>386</v>
+        <v>683</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -16644,7 +16676,7 @@
         <v>66</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -16652,7 +16684,7 @@
         <v>67</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -16660,7 +16692,7 @@
         <v>82</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -16684,15 +16716,15 @@
         <v>70</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="30">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="45">
       <c r="A55" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>386</v>
+        <v>684</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -16700,7 +16732,7 @@
         <v>66</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -16708,7 +16740,7 @@
         <v>67</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -16716,7 +16748,7 @@
         <v>82</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -16724,7 +16756,7 @@
         <v>68</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -16740,15 +16772,15 @@
         <v>70</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="30">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="45">
       <c r="A63" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>386</v>
+        <v>684</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -16756,7 +16788,7 @@
         <v>66</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -16764,7 +16796,7 @@
         <v>67</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -16772,7 +16804,7 @@
         <v>82</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -16780,7 +16812,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -16796,15 +16828,15 @@
         <v>70</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="30">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="45">
       <c r="A71" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>386</v>
+        <v>686</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -16812,7 +16844,7 @@
         <v>66</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -16820,7 +16852,7 @@
         <v>67</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -16828,7 +16860,7 @@
         <v>82</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -16836,7 +16868,7 @@
         <v>68</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -16852,15 +16884,15 @@
         <v>70</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="30">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="45">
       <c r="A79" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>386</v>
+        <v>682</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -16868,7 +16900,7 @@
         <v>66</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -16876,7 +16908,7 @@
         <v>67</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -16884,7 +16916,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>406</v>
+        <v>685</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -16892,7 +16924,7 @@
         <v>68</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -16908,15 +16940,15 @@
         <v>70</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="30">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="45">
       <c r="A87" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>386</v>
+        <v>687</v>
       </c>
     </row>
   </sheetData>

--- a/test/client/e2e test cases.xlsx
+++ b/test/client/e2e test cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14120" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20300" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="未登录" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3182" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3266" uniqueCount="759">
   <si>
     <t>步骤</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2462,441 +2462,509 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>interviews list 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews list 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews offer 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews offer 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在interviews offer 2中点击搜索按钮后，点击清空按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews offer 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews offer 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在interviews offer 4中点击搜索按钮后，点击清空按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews offer 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews onboards 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews onboards 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews onboards 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在interviews onboards 2中点击搜索按钮后，点击清空按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews onboards 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews onboards 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews onboards 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews onboards 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews onboards 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews onboards 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews onboards 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews onboards 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在interviews onboards 10中点击搜索按钮后，点击清空按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在界面勾选记住我，输入正确用户名和密码登陆,登陆后退出浏览器，再次打开浏览器。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开网站，应可以直接进入主页/today</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应进入/login登陆界面，要求登陆后才能进入主页/today</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在界面取消勾选记住我，输入正确用户名和密码登陆。登陆后退出浏览器，再次打开浏览器，打开网站。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码不足六位不能点击按钮。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forgot3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码不足六位不能点击按钮。若重置链接无效，显示“重置链接无效”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forgot4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若重置链接有效，显示“密码重置成功”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在forgot3中重置密码后，打开/login页面，用重置后的密码登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应能成功登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forgot5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活成功则显示“您的注册已激活，请使用邮箱和密码登陆”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在activate1中成功激活邮箱后，用注册的邮箱和密码登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应能成功登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活失败则显示“您的注册激活失败。可能因为该公司或邮箱已注册。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activate3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activate2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activate4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在activate3中激活邮箱失败后，用注册的邮箱和密码登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应能不能成功登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口应关闭，并跳转到/resumes/:id页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底部pagination条应显示总计数和分页数。总计数为0时pagination条应不显示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底部pagination条应显示总计数和分页数，分页数=总计数/50。总计数为0时pagination条应不显示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/interviews/reviews</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底部pagination条应显示总计数和分页数。总计数为0时pagination条应不显示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底部pagination条应显示总计数和分页数。总计数为0时pagination条显示“没有可以显示的项”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底部pagination条应显示总计数和分页数。总计数为0时pagination条显示“没有可以显示的项”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底部pagination条应显示总计数和分页数。总计数为0时pagination条显示“没有可以显示的项”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底部pagination条应显示总计数和分页数。总计数为0时pagination条显示“没有可以显示的项”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底部pagination条应显示总计数和分页数。总计数为0时pagination条显示“没有可以显示的项”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底部pagination条应显示总计数和分页数，分页数=总计数/50。总计数为0时pagination条应不显示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/applications/pursued/:index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applications pursued 13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applications pursued 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在applications pursued 12中单击“预约面试按钮”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应弹出创建面试预约的窗口</t>
+  </si>
+  <si>
+    <t>应弹出创建面试预约的窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在applications pursued 12中单击“归档”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applications pursued 14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applications pursued 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在applications pursued 12中单击“返回”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应显示通过的简历列表，表项中包含应聘职位，性别，生日，应聘时间，最高学历和最近工作等信息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该应聘者被放入人才库中，页面载入下一个简历，并回到页面顶部。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面应有“预约面试”，“归档”和“返回三个按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/applications/pursued/:index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回通过的简历列表页面/applications/pursued，并滚动到返回前/applications/pursued/:index所对应的应聘者所在的位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面应有“通过”，“归档”和“返回三个按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applications undetermined 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applications undetermined 13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applications undetermined 14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applications undetermined 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/applications/undetermined/:index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/applications/undetermined/:index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回待定的简历列表页面/applications/undetermined/，并滚动到返回前/applications/undetermined/:index所对应的应聘者所在的位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在applications undetermined 12中单击“归档”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在applications undetermined 12中单击“通过”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击导航栏中的“应聘”菜单,然后点击“待定”子菜单，单击列表项中“详细”按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击导航栏中的“应聘”菜单,然后点击“待定”子菜单，单击列表项中“归档”按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击导航栏中的“应聘”菜单,然后点击“待定”子菜单，点击应聘职位过滤项中的某一项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击导航栏中的“应聘”菜单,然后点击“待定”子菜单，点击年龄过滤项中的25-29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击导航栏中的“应聘”菜单,然后点击“待定”子菜单，点击学历过滤项中的本科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击导航栏中的“应聘”菜单,然后点击“待定”子菜单，在搜索栏中输入“理工大学”，点击搜索按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该应聘者被放入通过列表中，页面载入下一个简历，并回到页面顶部。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击导航栏中的“应聘”菜单,然后点击“新应聘”子菜单，单击列表项中“归档”按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击导航栏中的“应聘”菜单,然后点击“新应聘”子菜单，点击应聘职位过滤项中的某一项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击导航栏中的“应聘”菜单,然后点击“新应聘”子菜单，点击年龄过滤项中的25-29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击导航栏中的“应聘”菜单,然后点击“新应聘”子菜单，在搜索栏中输入“理工大学”，点击搜索按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击导航栏中的“应聘”菜单,然后点击“新应聘”子菜单，点击学历过滤项中的本科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击导航栏中的“应聘”菜单,然后点击“新应聘”子菜单，单击列表项中“详细”按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面应有“通过”，“待定”，“归档”和“返回三个按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applications new 14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/applications/new/:index</t>
+  </si>
+  <si>
+    <t>/applications/new/:index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新应聘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applications new 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在applications new 14中单击“通过”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applications new 16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在applications new 14中单击“归档”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在applications new 14中单击“返回”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在applications undetermined 12中单击“返回”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在applications new 14中单击“待定”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该应聘者被放入待定列表中，页面载入下一个简历，并回到页面顶部。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applications new 17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applications new 18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回待定的简历列表页面/applications/new/，并滚动到返回前/applications/new/:index所对应的应聘者所在的位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>在interviews list 9中点击接受按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>interviews list 11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interviews list 12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interviews offer 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interviews offer 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在interviews offer 2中点击搜索按钮后，点击清空按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interviews offer 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interviews offer 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在interviews offer 4中点击搜索按钮后，点击清空按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interviews offer 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interviews onboards 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interviews onboards 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interviews onboards 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在interviews onboards 2中点击搜索按钮后，点击清空按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interviews onboards 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interviews onboards 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interviews onboards 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interviews onboards 7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interviews onboards 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interviews onboards 9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interviews onboards 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interviews onboards 11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在interviews onboards 10中点击搜索按钮后，点击清空按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在界面勾选记住我，输入正确用户名和密码登陆,登陆后退出浏览器，再次打开浏览器。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开网站，应可以直接进入主页/today</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应进入/login登陆界面，要求登陆后才能进入主页/today</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在界面取消勾选记住我，输入正确用户名和密码登陆。登陆后退出浏览器，再次打开浏览器，打开网站。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码不足六位不能点击按钮。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>forgot3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码不足六位不能点击按钮。若重置链接无效，显示“重置链接无效”。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>forgot4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若重置链接有效，显示“密码重置成功”。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在forgot3中重置密码后，打开/login页面，用重置后的密码登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应能成功登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>forgot5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>激活成功则显示“您的注册已激活，请使用邮箱和密码登陆”。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在activate1中成功激活邮箱后，用注册的邮箱和密码登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应能成功登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>激活失败则显示“您的注册激活失败。可能因为该公司或邮箱已注册。”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>activate3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>activate2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>activate4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在activate3中激活邮箱失败后，用注册的邮箱和密码登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应能不能成功登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗口应关闭，并跳转到/resumes/:id页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>底部pagination条应显示总计数和分页数。总计数为0时pagination条应不显示。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>底部pagination条应显示总计数和分页数，分页数=总计数/50。总计数为0时pagination条应不显示。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/interviews/reviews</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>底部pagination条应显示总计数和分页数。总计数为0时pagination条应不显示。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>底部pagination条应显示总计数和分页数。总计数为0时pagination条显示“没有可以显示的项”。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>底部pagination条应显示总计数和分页数。总计数为0时pagination条显示“没有可以显示的项”。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>底部pagination条应显示总计数和分页数。总计数为0时pagination条显示“没有可以显示的项”。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>底部pagination条应显示总计数和分页数。总计数为0时pagination条显示“没有可以显示的项”。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>底部pagination条应显示总计数和分页数。总计数为0时pagination条显示“没有可以显示的项”。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>底部pagination条应显示总计数和分页数，分页数=总计数/50。总计数为0时pagination条应不显示。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/applications/pursued/:index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>applications pursued 13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>applications pursued 12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在applications pursued 12中单击“预约面试按钮”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应弹出创建面试预约的窗口</t>
-  </si>
-  <si>
-    <t>应弹出创建面试预约的窗口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在applications pursued 12中单击“归档”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>applications pursued 14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>applications pursued 15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在applications pursued 12中单击“返回”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应显示通过的简历列表，表项中包含应聘职位，性别，生日，应聘时间，最高学历和最近工作等信息。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该应聘者被放入人才库中，页面载入下一个简历，并回到页面顶部。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面应有“预约面试”，“归档”和“返回三个按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/applications/pursued/:index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回通过的简历列表页面/applications/pursued，并滚动到返回前/applications/pursued/:index所对应的应聘者所在的位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面应有“通过”，“归档”和“返回三个按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>applications undetermined 12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>applications undetermined 13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>applications undetermined 14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>applications undetermined 15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/applications/undetermined/:index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/applications/undetermined/:index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回待定的简历列表页面/applications/undetermined/，并滚动到返回前/applications/undetermined/:index所对应的应聘者所在的位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在applications undetermined 12中单击“归档”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在applications undetermined 12中单击“通过”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击导航栏中的“应聘”菜单,然后点击“待定”子菜单，单击列表项中“详细”按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击导航栏中的“应聘”菜单,然后点击“待定”子菜单，单击列表项中“归档”按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击导航栏中的“应聘”菜单,然后点击“待定”子菜单，点击应聘职位过滤项中的某一项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击导航栏中的“应聘”菜单,然后点击“待定”子菜单，点击年龄过滤项中的25-29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击导航栏中的“应聘”菜单,然后点击“待定”子菜单，点击学历过滤项中的本科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击导航栏中的“应聘”菜单,然后点击“待定”子菜单，在搜索栏中输入“理工大学”，点击搜索按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该应聘者被放入通过列表中，页面载入下一个简历，并回到页面顶部。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击导航栏中的“应聘”菜单,然后点击“新应聘”子菜单，单击列表项中“归档”按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击导航栏中的“应聘”菜单,然后点击“新应聘”子菜单，点击应聘职位过滤项中的某一项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击导航栏中的“应聘”菜单,然后点击“新应聘”子菜单，点击年龄过滤项中的25-29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击导航栏中的“应聘”菜单,然后点击“新应聘”子菜单，在搜索栏中输入“理工大学”，点击搜索按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击导航栏中的“应聘”菜单,然后点击“新应聘”子菜单，点击学历过滤项中的本科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击导航栏中的“应聘”菜单,然后点击“新应聘”子菜单，单击列表项中“详细”按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面应有“通过”，“待定”，“归档”和“返回三个按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>applications new 14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/applications/new/:index</t>
-  </si>
-  <si>
-    <t>/applications/new/:index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新应聘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>applications new 15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在applications new 14中单击“通过”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>applications new 16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在applications new 14中单击“归档”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在applications new 14中单击“返回”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在applications undetermined 12中单击“返回”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在applications new 14中单击“待定”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该应聘者被放入待定列表中，页面载入下一个简历，并回到页面顶部。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>applications new 17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>applications new 18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回待定的简历列表页面/applications/new/，并滚动到返回前/applications/new/:index所对应的应聘者所在的位置</t>
+    <t>interviews offer 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在导航栏中点击面试菜单，点击通过子菜单,点击应聘者接受按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应出现入职日期选择器，以及保存和取消按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews offer 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在导航栏中点击面试菜单，点击通过子菜单,点击应聘者接受按钮，选择一个入职日期，然后点击保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在导航栏中点击面试菜单，点击通过子菜单,点击应聘者拒绝按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应出现选择拒绝原因下拉菜单，以及保存和取消按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在导航栏中点击面试菜单，点击通过子菜单,点击应聘者拒绝按钮，选择一个拒绝原因，然后点击保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存成功，应聘者进入人才库中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在导航栏中点击面试菜单，点击通过子菜单,点击应聘者接受按钮，然后点击取消按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回“应聘者接受”和“应聘者接受”按钮界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews offer 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存成功，应聘者进入待入职列表中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews offer 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews offer 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews offer 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在导航栏中点击面试菜单，点击通过子菜单,点击应聘者拒绝按钮，然后点击取消按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3039,8 +3107,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="677">
+  <cellStyleXfs count="693">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3784,7 +3868,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="677">
+  <cellStyles count="693">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -4123,6 +4207,14 @@
     <cellStyle name="超链接" xfId="671" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="673" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="675" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="677" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="679" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="681" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="683" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="685" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="687" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="689" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="691" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -4461,6 +4553,14 @@
     <cellStyle name="访问过的超链接" xfId="672" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="674" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="676" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="678" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="680" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="682" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="684" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="686" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="688" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="690" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="692" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4935,7 +5035,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4943,7 +5043,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4983,7 +5083,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4991,7 +5091,7 @@
         <v>21</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -5087,7 +5187,7 @@
         <v>21</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -5099,7 +5199,7 @@
         <v>6</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -5139,7 +5239,7 @@
         <v>1</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -5151,7 +5251,7 @@
         <v>6</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -5183,7 +5283,7 @@
         <v>19</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -5191,7 +5291,7 @@
         <v>1</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -5203,7 +5303,7 @@
         <v>6</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -5243,7 +5343,7 @@
         <v>1</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -5339,7 +5439,7 @@
         <v>21</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -5347,7 +5447,7 @@
         <v>6</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -5379,7 +5479,7 @@
         <v>19</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -5387,7 +5487,7 @@
         <v>1</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -5395,7 +5495,7 @@
         <v>6</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -5435,7 +5535,7 @@
         <v>1</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -5443,7 +5543,7 @@
         <v>6</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -5475,7 +5575,7 @@
         <v>19</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -5483,7 +5583,7 @@
         <v>1</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
   </sheetData>
@@ -6152,7 +6252,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E393"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView topLeftCell="A140" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="F144" sqref="F144"/>
     </sheetView>
   </sheetViews>
@@ -6720,7 +6820,7 @@
         <v>70</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="30">
@@ -6776,7 +6876,7 @@
         <v>70</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -6832,7 +6932,7 @@
         <v>70</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -6888,7 +6988,7 @@
         <v>70</v>
       </c>
       <c r="B102" s="17" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -6944,7 +7044,7 @@
         <v>70</v>
       </c>
       <c r="B110" s="17" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -6964,7 +7064,7 @@
         <v>6</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -6980,7 +7080,7 @@
         <v>82</v>
       </c>
       <c r="B115" s="17" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -6988,7 +7088,7 @@
         <v>68</v>
       </c>
       <c r="B116" s="17" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -7004,7 +7104,7 @@
         <v>70</v>
       </c>
       <c r="B118" s="17" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -7012,7 +7112,7 @@
         <v>71</v>
       </c>
       <c r="B119" s="17" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -7020,7 +7120,7 @@
         <v>6</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -7036,7 +7136,7 @@
         <v>82</v>
       </c>
       <c r="B123" s="17" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -7044,7 +7144,7 @@
         <v>68</v>
       </c>
       <c r="B124" s="17" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -7060,7 +7160,7 @@
         <v>70</v>
       </c>
       <c r="B126" s="17" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="30">
@@ -7068,7 +7168,7 @@
         <v>71</v>
       </c>
       <c r="B127" s="17" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -7076,7 +7176,7 @@
         <v>6</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -7092,7 +7192,7 @@
         <v>82</v>
       </c>
       <c r="B131" s="17" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -7100,7 +7200,7 @@
         <v>68</v>
       </c>
       <c r="B132" s="17" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -7116,7 +7216,7 @@
         <v>70</v>
       </c>
       <c r="B134" s="17" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="30">
@@ -7124,7 +7224,7 @@
         <v>71</v>
       </c>
       <c r="B135" s="17" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -7132,7 +7232,7 @@
         <v>6</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -7148,7 +7248,7 @@
         <v>82</v>
       </c>
       <c r="B139" s="17" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -7156,7 +7256,7 @@
         <v>68</v>
       </c>
       <c r="B140" s="17" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -7172,7 +7272,7 @@
         <v>70</v>
       </c>
       <c r="B142" s="17" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -7180,7 +7280,7 @@
         <v>71</v>
       </c>
       <c r="B143" s="17" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -7188,7 +7288,7 @@
         <v>66</v>
       </c>
       <c r="B145" s="20" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -7212,7 +7312,7 @@
         <v>68</v>
       </c>
       <c r="B148" s="17" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -7228,7 +7328,7 @@
         <v>70</v>
       </c>
       <c r="B150" s="17" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="30">
@@ -7236,7 +7336,7 @@
         <v>71</v>
       </c>
       <c r="B151" s="17" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -7624,7 +7724,7 @@
         <v>70</v>
       </c>
       <c r="B207" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="30">
@@ -7680,7 +7780,7 @@
         <v>70</v>
       </c>
       <c r="B215" s="17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -7736,7 +7836,7 @@
         <v>70</v>
       </c>
       <c r="B223" s="17" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -7792,7 +7892,7 @@
         <v>70</v>
       </c>
       <c r="B231" s="17" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -7848,7 +7948,7 @@
         <v>70</v>
       </c>
       <c r="B239" s="17" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -7868,7 +7968,7 @@
         <v>6</v>
       </c>
       <c r="B242" s="14" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -7892,7 +7992,7 @@
         <v>68</v>
       </c>
       <c r="B245" s="17" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -7908,7 +8008,7 @@
         <v>70</v>
       </c>
       <c r="B247" s="17" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -7916,7 +8016,7 @@
         <v>71</v>
       </c>
       <c r="B248" s="17" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -7924,7 +8024,7 @@
         <v>6</v>
       </c>
       <c r="B250" s="14" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -7948,7 +8048,7 @@
         <v>68</v>
       </c>
       <c r="B253" s="17" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -7964,7 +8064,7 @@
         <v>70</v>
       </c>
       <c r="B255" s="17" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="30">
@@ -7972,7 +8072,7 @@
         <v>71</v>
       </c>
       <c r="B256" s="17" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -7980,7 +8080,7 @@
         <v>6</v>
       </c>
       <c r="B258" s="14" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -8004,7 +8104,7 @@
         <v>68</v>
       </c>
       <c r="B261" s="17" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -8020,7 +8120,7 @@
         <v>70</v>
       </c>
       <c r="B263" s="17" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -8028,7 +8128,7 @@
         <v>71</v>
       </c>
       <c r="B264" s="17" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -8036,7 +8136,7 @@
         <v>6</v>
       </c>
       <c r="B266" s="14" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -8060,7 +8160,7 @@
         <v>68</v>
       </c>
       <c r="B269" s="17" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -8076,7 +8176,7 @@
         <v>70</v>
       </c>
       <c r="B271" s="17" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="45">
@@ -8084,7 +8184,7 @@
         <v>71</v>
       </c>
       <c r="B272" s="17" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -8140,7 +8240,7 @@
         <v>1</v>
       </c>
       <c r="B280" s="18" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -8712,7 +8812,7 @@
         <v>6</v>
       </c>
       <c r="B363" s="14" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -8736,7 +8836,7 @@
         <v>68</v>
       </c>
       <c r="B366" s="17" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -8760,7 +8860,7 @@
         <v>71</v>
       </c>
       <c r="B369" s="17" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -8768,7 +8868,7 @@
         <v>6</v>
       </c>
       <c r="B371" s="14" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -8792,7 +8892,7 @@
         <v>68</v>
       </c>
       <c r="B374" s="17" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -8808,7 +8908,7 @@
         <v>70</v>
       </c>
       <c r="B376" s="17" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -8816,7 +8916,7 @@
         <v>71</v>
       </c>
       <c r="B377" s="17" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -8824,7 +8924,7 @@
         <v>6</v>
       </c>
       <c r="B379" s="14" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -8848,7 +8948,7 @@
         <v>68</v>
       </c>
       <c r="B382" s="17" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -8864,7 +8964,7 @@
         <v>70</v>
       </c>
       <c r="B384" s="17" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -8872,7 +8972,7 @@
         <v>71</v>
       </c>
       <c r="B385" s="17" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -8880,7 +8980,7 @@
         <v>6</v>
       </c>
       <c r="B387" s="14" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -8904,7 +9004,7 @@
         <v>68</v>
       </c>
       <c r="B390" s="17" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -8920,7 +9020,7 @@
         <v>70</v>
       </c>
       <c r="B392" s="17" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="393" spans="1:2" ht="30">
@@ -8928,7 +9028,7 @@
         <v>71</v>
       </c>
       <c r="B393" s="17" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
   </sheetData>
@@ -9745,7 +9845,7 @@
         <v>71</v>
       </c>
       <c r="B112" s="17" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -11237,7 +11337,7 @@
         <v>434</v>
       </c>
       <c r="B320" s="17" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -14855,10 +14955,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B344"/>
+  <dimension ref="A1:B392"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="B331" sqref="B331"/>
+    <sheetView tabSelected="1" topLeftCell="A280" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="B292" sqref="B292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -16297,7 +16397,7 @@
         <v>335</v>
       </c>
       <c r="B202" s="20" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -16353,7 +16453,7 @@
         <v>66</v>
       </c>
       <c r="B210" s="20" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -16393,7 +16493,7 @@
         <v>70</v>
       </c>
       <c r="B215" s="17" t="s">
-        <v>632</v>
+        <v>741</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="45">
@@ -16409,7 +16509,7 @@
         <v>66</v>
       </c>
       <c r="B218" s="20" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -16465,7 +16565,7 @@
         <v>66</v>
       </c>
       <c r="B226" s="20" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -16521,7 +16621,7 @@
         <v>66</v>
       </c>
       <c r="B234" s="20" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -16561,7 +16661,7 @@
         <v>70</v>
       </c>
       <c r="B239" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -16577,7 +16677,7 @@
         <v>66</v>
       </c>
       <c r="B242" s="20" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -16633,7 +16733,7 @@
         <v>66</v>
       </c>
       <c r="B250" s="20" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -16673,7 +16773,7 @@
         <v>70</v>
       </c>
       <c r="B255" s="17" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -16689,7 +16789,7 @@
         <v>66</v>
       </c>
       <c r="B258" s="20" t="s">
-        <v>643</v>
+        <v>742</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -16705,7 +16805,7 @@
         <v>82</v>
       </c>
       <c r="B260" s="17" t="s">
-        <v>342</v>
+        <v>137</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -16713,7 +16813,7 @@
         <v>68</v>
       </c>
       <c r="B261" s="17" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -16729,15 +16829,15 @@
         <v>70</v>
       </c>
       <c r="B263" s="17" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" ht="45">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
       <c r="A264" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B264" s="17" t="s">
-        <v>350</v>
+        <v>744</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -16745,7 +16845,7 @@
         <v>66</v>
       </c>
       <c r="B266" s="20" t="s">
-        <v>642</v>
+        <v>745</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -16761,7 +16861,7 @@
         <v>82</v>
       </c>
       <c r="B268" s="17" t="s">
-        <v>342</v>
+        <v>137</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -16769,7 +16869,7 @@
         <v>68</v>
       </c>
       <c r="B269" s="17" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -16785,7 +16885,7 @@
         <v>70</v>
       </c>
       <c r="B271" s="17" t="s">
-        <v>351</v>
+        <v>746</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -16793,7 +16893,7 @@
         <v>71</v>
       </c>
       <c r="B272" s="17" t="s">
-        <v>305</v>
+        <v>754</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -16801,7 +16901,7 @@
         <v>66</v>
       </c>
       <c r="B274" s="20" t="s">
-        <v>644</v>
+        <v>753</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -16817,7 +16917,7 @@
         <v>82</v>
       </c>
       <c r="B276" s="17" t="s">
-        <v>342</v>
+        <v>137</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -16825,7 +16925,7 @@
         <v>68</v>
       </c>
       <c r="B277" s="17" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -16836,12 +16936,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="279" spans="1:2">
+    <row r="279" spans="1:2" ht="30">
       <c r="A279" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B279" s="17" t="s">
-        <v>645</v>
+        <v>751</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -16849,19 +16949,15 @@
         <v>71</v>
       </c>
       <c r="B280" s="17" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2">
-      <c r="A281" s="7"/>
-      <c r="B281" s="17"/>
+        <v>752</v>
+      </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="19" t="s">
         <v>66</v>
       </c>
       <c r="B282" s="20" t="s">
-        <v>646</v>
+        <v>755</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -16877,7 +16973,7 @@
         <v>82</v>
       </c>
       <c r="B284" s="17" t="s">
-        <v>342</v>
+        <v>137</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -16885,7 +16981,7 @@
         <v>68</v>
       </c>
       <c r="B285" s="17" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -16896,32 +16992,28 @@
         <v>83</v>
       </c>
     </row>
-    <row r="287" spans="1:2" ht="30">
+    <row r="287" spans="1:2">
       <c r="A287" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B287" s="17" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" ht="30">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
       <c r="A288" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B288" s="17" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2">
-      <c r="A289" s="7"/>
-      <c r="B289" s="17"/>
+        <v>748</v>
+      </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="19" t="s">
         <v>66</v>
       </c>
       <c r="B290" s="20" t="s">
-        <v>647</v>
+        <v>756</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -16937,7 +17029,7 @@
         <v>82</v>
       </c>
       <c r="B292" s="17" t="s">
-        <v>342</v>
+        <v>137</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -16945,7 +17037,7 @@
         <v>68</v>
       </c>
       <c r="B293" s="17" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -16961,27 +17053,23 @@
         <v>70</v>
       </c>
       <c r="B295" s="17" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" ht="30">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
       <c r="A296" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B296" s="17" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2">
-      <c r="A297" s="7"/>
-      <c r="B297" s="17"/>
+        <v>750</v>
+      </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="19" t="s">
         <v>66</v>
       </c>
       <c r="B298" s="20" t="s">
-        <v>648</v>
+        <v>757</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -16997,7 +17085,7 @@
         <v>82</v>
       </c>
       <c r="B300" s="17" t="s">
-        <v>342</v>
+        <v>137</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -17005,7 +17093,7 @@
         <v>68</v>
       </c>
       <c r="B301" s="17" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -17021,7 +17109,7 @@
         <v>70</v>
       </c>
       <c r="B303" s="17" t="s">
-        <v>358</v>
+        <v>758</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -17029,7 +17117,7 @@
         <v>71</v>
       </c>
       <c r="B304" s="17" t="s">
-        <v>359</v>
+        <v>752</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -17037,7 +17125,7 @@
         <v>66</v>
       </c>
       <c r="B306" s="20" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -17072,32 +17160,28 @@
         <v>83</v>
       </c>
     </row>
-    <row r="311" spans="1:2" ht="30">
+    <row r="311" spans="1:2">
       <c r="A311" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B311" s="17" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" ht="45">
       <c r="A312" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B312" s="17" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2">
-      <c r="A313" s="7"/>
-      <c r="B313" s="17"/>
+        <v>350</v>
+      </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="19" t="s">
         <v>66</v>
       </c>
       <c r="B314" s="20" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -17137,7 +17221,7 @@
         <v>70</v>
       </c>
       <c r="B319" s="17" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -17145,7 +17229,7 @@
         <v>71</v>
       </c>
       <c r="B320" s="17" t="s">
-        <v>363</v>
+        <v>305</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -17153,7 +17237,7 @@
         <v>66</v>
       </c>
       <c r="B322" s="20" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -17188,12 +17272,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="327" spans="1:2" ht="30">
+    <row r="327" spans="1:2">
       <c r="A327" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B327" s="17" t="s">
-        <v>364</v>
+        <v>644</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -17201,7 +17285,7 @@
         <v>71</v>
       </c>
       <c r="B328" s="17" t="s">
-        <v>365</v>
+        <v>308</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -17213,7 +17297,7 @@
         <v>66</v>
       </c>
       <c r="B330" s="20" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -17253,23 +17337,27 @@
         <v>70</v>
       </c>
       <c r="B335" s="17" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" ht="30">
       <c r="A336" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B336" s="17" t="s">
-        <v>353</v>
-      </c>
+        <v>355</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" s="7"/>
+      <c r="B337" s="17"/>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="19" t="s">
         <v>66</v>
       </c>
       <c r="B338" s="20" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -17304,19 +17392,367 @@
         <v>83</v>
       </c>
     </row>
-    <row r="343" spans="1:2">
+    <row r="343" spans="1:2" ht="30">
       <c r="A343" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B343" s="17" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" ht="30">
       <c r="A344" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B344" s="17" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" s="7"/>
+      <c r="B345" s="17"/>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B346" s="20" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B347" s="17" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B348" s="17" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B349" s="17" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B350" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" ht="30">
+      <c r="A351" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B351" s="17" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B352" s="17" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B354" s="20" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B355" s="17" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B356" s="17" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B357" s="17" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B358" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" ht="30">
+      <c r="A359" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B359" s="17" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B360" s="17" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" s="7"/>
+      <c r="B361" s="17"/>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B362" s="20" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B363" s="17" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B364" s="17" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B365" s="17" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B366" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" ht="30">
+      <c r="A367" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B367" s="17" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B368" s="17" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B370" s="20" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B371" s="17" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B372" s="17" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B373" s="17" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B374" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" ht="30">
+      <c r="A375" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B375" s="17" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B376" s="17" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" s="7"/>
+      <c r="B377" s="17"/>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B378" s="20" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B379" s="17" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B380" s="17" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B381" s="17" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B382" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" ht="30">
+      <c r="A383" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B383" s="17" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B384" s="17" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B386" s="20" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B387" s="17" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B388" s="17" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B389" s="17" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B390" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B391" s="17" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B392" s="17" t="s">
         <v>308</v>
       </c>
     </row>
@@ -17398,7 +17834,7 @@
         <v>71</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -17454,7 +17890,7 @@
         <v>71</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -17510,7 +17946,7 @@
         <v>71</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -17542,7 +17978,7 @@
         <v>68</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -17566,7 +18002,7 @@
         <v>71</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -17622,7 +18058,7 @@
         <v>71</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -17678,7 +18114,7 @@
         <v>71</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -17734,7 +18170,7 @@
         <v>71</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -17790,7 +18226,7 @@
         <v>71</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -17846,7 +18282,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -17902,7 +18338,7 @@
         <v>71</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -17926,7 +18362,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -17958,7 +18394,7 @@
         <v>71</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
   </sheetData>

--- a/test/client/e2e test cases.xlsx
+++ b/test/client/e2e test cases.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3266" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3406" uniqueCount="781">
   <si>
     <t>步骤</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2912,46 +2912,54 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>在导航栏中点击面试菜单，点击通过子菜单,点击应聘者接受按钮，选择一个入职日期，然后点击保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在导航栏中点击面试菜单，点击通过子菜单,点击应聘者拒绝按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应出现选择拒绝原因下拉菜单，以及保存和取消按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在导航栏中点击面试菜单，点击通过子菜单,点击应聘者拒绝按钮，选择一个拒绝原因，然后点击保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存成功，应聘者进入人才库中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在导航栏中点击面试菜单，点击通过子菜单,点击应聘者接受按钮，然后点击取消按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回“应聘者接受”和“应聘者接受”按钮界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存成功，应聘者进入待入职列表中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在导航栏中点击面试菜单，点击通过子菜单,点击应聘者拒绝按钮，然后点击取消按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未选择日期时，保存按钮应为disabled状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>interviews offer 7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在导航栏中点击面试菜单，点击通过子菜单,点击应聘者接受按钮，选择一个入职日期，然后点击保存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在导航栏中点击面试菜单，点击通过子菜单,点击应聘者拒绝按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应出现选择拒绝原因下拉菜单，以及保存和取消按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在导航栏中点击面试菜单，点击通过子菜单,点击应聘者拒绝按钮，选择一个拒绝原因，然后点击保存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存成功，应聘者进入人才库中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在导航栏中点击面试菜单，点击通过子菜单,点击应聘者接受按钮，然后点击取消按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回“应聘者接受”和“应聘者接受”按钮界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>interviews offer 8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>保存成功，应聘者进入待入职列表中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>interviews offer 9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2964,7 +2972,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在导航栏中点击面试菜单，点击通过子菜单,点击应聘者拒绝按钮，然后点击取消按钮</t>
+    <t>interviews offer 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews offer 13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/interviews/onboards</t>
+  </si>
+  <si>
+    <t>interviews onboard 10</t>
+  </si>
+  <si>
+    <t>interviews onboard 11</t>
+  </si>
+  <si>
+    <t>interviews onboard 12</t>
+  </si>
+  <si>
+    <t>interviews onboard 13</t>
+  </si>
+  <si>
+    <t>入职</t>
+  </si>
+  <si>
+    <t>在导航栏中点击面试菜单，点击入职子菜单,点击应聘者接受按钮</t>
+  </si>
+  <si>
+    <t>在导航栏中点击面试菜单，点击入职子菜单,点击应聘者接受按钮，选择一个入职日期，然后点击保存</t>
+  </si>
+  <si>
+    <t>在导航栏中点击面试菜单，点击入职子菜单,点击应聘者接受按钮，然后点击取消按钮</t>
+  </si>
+  <si>
+    <t>在导航栏中点击面试菜单，点击入职子菜单,点击应聘者拒绝按钮</t>
+  </si>
+  <si>
+    <t>在导航栏中点击面试菜单，点击入职子菜单,点击应聘者拒绝按钮，选择一个拒绝原因，然后点击保存</t>
+  </si>
+  <si>
+    <t>在导航栏中点击面试菜单，点击入职子菜单,点击应聘者拒绝按钮，然后点击取消按钮</t>
+  </si>
+  <si>
+    <t>interviews onboard 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews onboard 13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews onboard 14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviews onboard 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存成功，应聘者状态变为已入职，并从入职列表中消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未选择拒绝原因时，保存按钮应为disabled状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在导航栏中点击面试菜单，点击入职子菜单,点击应聘者拒绝按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3107,8 +3183,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="693">
+  <cellStyleXfs count="701">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3868,7 +3952,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="693">
+  <cellStyles count="701">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -4215,6 +4299,10 @@
     <cellStyle name="超链接" xfId="687" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="689" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="691" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="693" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="695" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="697" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="699" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -4561,6 +4649,10 @@
     <cellStyle name="访问过的超链接" xfId="688" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="690" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="692" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="694" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="696" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="698" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="700" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -12091,7 +12183,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -14955,10 +15047,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B392"/>
+  <dimension ref="A1:B473"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="B292" sqref="B292"/>
+    <sheetView tabSelected="1" topLeftCell="A444" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="C453" sqref="C453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -16840,12 +16932,16 @@
         <v>744</v>
       </c>
     </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="7"/>
+      <c r="B265" s="17"/>
+    </row>
     <row r="266" spans="1:2">
       <c r="A266" s="19" t="s">
         <v>66</v>
       </c>
       <c r="B266" s="20" t="s">
-        <v>745</v>
+        <v>755</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -16880,12 +16976,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="271" spans="1:2" ht="30">
+    <row r="271" spans="1:2">
       <c r="A271" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B271" s="17" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -16901,7 +16997,7 @@
         <v>66</v>
       </c>
       <c r="B274" s="20" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -16941,7 +17037,7 @@
         <v>70</v>
       </c>
       <c r="B279" s="17" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -16957,7 +17053,7 @@
         <v>66</v>
       </c>
       <c r="B282" s="20" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -16992,12 +17088,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="287" spans="1:2">
+    <row r="287" spans="1:2" ht="30">
       <c r="A287" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B287" s="17" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -17005,7 +17101,7 @@
         <v>71</v>
       </c>
       <c r="B288" s="17" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -17013,7 +17109,7 @@
         <v>66</v>
       </c>
       <c r="B290" s="20" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -17048,12 +17144,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="295" spans="1:2" ht="30">
+    <row r="295" spans="1:2">
       <c r="A295" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B295" s="17" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -17061,15 +17157,19 @@
         <v>71</v>
       </c>
       <c r="B296" s="17" t="s">
-        <v>750</v>
-      </c>
+        <v>747</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" s="7"/>
+      <c r="B297" s="17"/>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="19" t="s">
         <v>66</v>
       </c>
       <c r="B298" s="20" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -17104,12 +17204,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="30">
+    <row r="303" spans="1:2">
       <c r="A303" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B303" s="17" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -17117,7 +17217,7 @@
         <v>71</v>
       </c>
       <c r="B304" s="17" t="s">
-        <v>752</v>
+        <v>779</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -17125,7 +17225,7 @@
         <v>66</v>
       </c>
       <c r="B306" s="20" t="s">
-        <v>642</v>
+        <v>760</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -17141,7 +17241,7 @@
         <v>82</v>
       </c>
       <c r="B308" s="17" t="s">
-        <v>342</v>
+        <v>137</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -17149,7 +17249,7 @@
         <v>68</v>
       </c>
       <c r="B309" s="17" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -17160,20 +17260,20 @@
         <v>83</v>
       </c>
     </row>
-    <row r="311" spans="1:2">
+    <row r="311" spans="1:2" ht="30">
       <c r="A311" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B311" s="17" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" ht="45">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
       <c r="A312" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B312" s="17" t="s">
-        <v>350</v>
+        <v>749</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -17181,7 +17281,7 @@
         <v>66</v>
       </c>
       <c r="B314" s="20" t="s">
-        <v>641</v>
+        <v>761</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -17197,7 +17297,7 @@
         <v>82</v>
       </c>
       <c r="B316" s="17" t="s">
-        <v>342</v>
+        <v>137</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -17205,7 +17305,7 @@
         <v>68</v>
       </c>
       <c r="B317" s="17" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -17221,7 +17321,7 @@
         <v>70</v>
       </c>
       <c r="B319" s="17" t="s">
-        <v>351</v>
+        <v>753</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -17229,7 +17329,7 @@
         <v>71</v>
       </c>
       <c r="B320" s="17" t="s">
-        <v>305</v>
+        <v>751</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -17237,7 +17337,7 @@
         <v>66</v>
       </c>
       <c r="B322" s="20" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -17277,27 +17377,23 @@
         <v>70</v>
       </c>
       <c r="B327" s="17" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" ht="45">
       <c r="A328" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B328" s="17" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2">
-      <c r="A329" s="7"/>
-      <c r="B329" s="17"/>
+        <v>350</v>
+      </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="19" t="s">
         <v>66</v>
       </c>
       <c r="B330" s="20" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -17337,27 +17433,23 @@
         <v>70</v>
       </c>
       <c r="B335" s="17" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" ht="30">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
       <c r="A336" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B336" s="17" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2">
-      <c r="A337" s="7"/>
-      <c r="B337" s="17"/>
+        <v>305</v>
+      </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="19" t="s">
         <v>66</v>
       </c>
       <c r="B338" s="20" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -17392,20 +17484,20 @@
         <v>83</v>
       </c>
     </row>
-    <row r="343" spans="1:2" ht="30">
+    <row r="343" spans="1:2">
       <c r="A343" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B343" s="17" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" ht="30">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
       <c r="A344" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B344" s="17" t="s">
-        <v>357</v>
+        <v>308</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -17417,7 +17509,7 @@
         <v>66</v>
       </c>
       <c r="B346" s="20" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -17457,23 +17549,27 @@
         <v>70</v>
       </c>
       <c r="B351" s="17" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" ht="30">
       <c r="A352" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B352" s="17" t="s">
-        <v>359</v>
-      </c>
+        <v>355</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" s="7"/>
+      <c r="B353" s="17"/>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="19" t="s">
         <v>66</v>
       </c>
       <c r="B354" s="20" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -17513,15 +17609,15 @@
         <v>70</v>
       </c>
       <c r="B359" s="17" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" ht="30">
       <c r="A360" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B360" s="17" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -17533,7 +17629,7 @@
         <v>66</v>
       </c>
       <c r="B362" s="20" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -17573,7 +17669,7 @@
         <v>70</v>
       </c>
       <c r="B367" s="17" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -17581,7 +17677,7 @@
         <v>71</v>
       </c>
       <c r="B368" s="17" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -17589,7 +17685,7 @@
         <v>66</v>
       </c>
       <c r="B370" s="20" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -17629,7 +17725,7 @@
         <v>70</v>
       </c>
       <c r="B375" s="17" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -17637,7 +17733,7 @@
         <v>71</v>
       </c>
       <c r="B376" s="17" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -17649,7 +17745,7 @@
         <v>66</v>
       </c>
       <c r="B378" s="20" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -17689,7 +17785,7 @@
         <v>70</v>
       </c>
       <c r="B383" s="17" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -17697,7 +17793,7 @@
         <v>71</v>
       </c>
       <c r="B384" s="17" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -17705,7 +17801,7 @@
         <v>66</v>
       </c>
       <c r="B386" s="20" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -17740,12 +17836,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="391" spans="1:2">
+    <row r="391" spans="1:2" ht="30">
       <c r="A391" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B391" s="17" t="s">
-        <v>653</v>
+        <v>364</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -17753,7 +17849,579 @@
         <v>71</v>
       </c>
       <c r="B392" s="17" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393" s="7"/>
+      <c r="B393" s="17"/>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B394" s="20" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B395" s="17" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B396" s="17" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
+      <c r="A397" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B397" s="17" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2">
+      <c r="A398" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B398" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" ht="30">
+      <c r="A399" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B399" s="17" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2">
+      <c r="A400" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B400" s="17" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B402" s="20" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B403" s="17" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2">
+      <c r="A404" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B404" s="17" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="A405" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B405" s="17" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="A406" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B406" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
+      <c r="A407" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B407" s="17" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B408" s="17" t="s">
         <v>308</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="A411" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B411" s="20" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="A412" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B412" s="17" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2">
+      <c r="A413" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B413" s="17" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2">
+      <c r="A414" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B414" s="17" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2">
+      <c r="A415" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B415" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2">
+      <c r="A416" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B416" s="17" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2">
+      <c r="A417" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B417" s="17" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2">
+      <c r="A418" s="7"/>
+      <c r="B418" s="17"/>
+    </row>
+    <row r="419" spans="1:2">
+      <c r="A419" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B419" s="20" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2">
+      <c r="A420" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B420" s="17" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2">
+      <c r="A421" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B421" s="17" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2">
+      <c r="A422" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B422" s="17" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2">
+      <c r="A423" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B423" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2">
+      <c r="A424" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B424" s="17" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2">
+      <c r="A425" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B425" s="17" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2">
+      <c r="A427" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B427" s="20" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2">
+      <c r="A428" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B428" s="17" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2">
+      <c r="A429" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B429" s="17" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2">
+      <c r="A430" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B430" s="17" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2">
+      <c r="A431" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B431" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" ht="30">
+      <c r="A432" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B432" s="17" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2">
+      <c r="A433" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B433" s="17" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2">
+      <c r="A435" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B435" s="20" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2">
+      <c r="A436" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B436" s="17" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2">
+      <c r="A437" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B437" s="17" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2">
+      <c r="A438" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B438" s="17" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2">
+      <c r="A439" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B439" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" ht="30">
+      <c r="A440" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B440" s="17" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2">
+      <c r="A441" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B441" s="17" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2">
+      <c r="A443" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B443" s="20" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2">
+      <c r="A444" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B444" s="17" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2">
+      <c r="A445" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B445" s="17" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2">
+      <c r="A446" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B446" s="17" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2">
+      <c r="A447" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B447" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2">
+      <c r="A448" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B448" s="17" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2">
+      <c r="A449" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B449" s="17" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2">
+      <c r="A450" s="7"/>
+      <c r="B450" s="17"/>
+    </row>
+    <row r="451" spans="1:2">
+      <c r="A451" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B451" s="20" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2">
+      <c r="A452" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B452" s="17" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2">
+      <c r="A453" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B453" s="17" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2">
+      <c r="A454" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B454" s="17" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2">
+      <c r="A455" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B455" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2">
+      <c r="A456" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B456" s="17" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2">
+      <c r="A457" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B457" s="17" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2">
+      <c r="A459" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B459" s="20" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2">
+      <c r="A460" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B460" s="17" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2">
+      <c r="A461" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B461" s="17" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2">
+      <c r="A462" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B462" s="17" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
+      <c r="A463" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B463" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" ht="30">
+      <c r="A464" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B464" s="17" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2">
+      <c r="A465" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B465" s="17" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2">
+      <c r="A467" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B467" s="20" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2">
+      <c r="A468" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B468" s="17" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2">
+      <c r="A469" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B469" s="17" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2">
+      <c r="A470" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B470" s="17" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
+      <c r="A471" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B471" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" ht="30">
+      <c r="A472" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B472" s="17" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
+      <c r="A473" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B473" s="17" t="s">
+        <v>751</v>
       </c>
     </row>
   </sheetData>

--- a/test/client/e2e test cases.xlsx
+++ b/test/client/e2e test cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20300" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20300" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="未登录" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3406" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3406" uniqueCount="784">
   <si>
     <t>步骤</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2725,10 +2725,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>该应聘者被放入人才库中，页面载入下一个简历，并回到页面顶部。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>页面应有“预约面试”，“归档”和“返回三个按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2805,10 +2801,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>该应聘者被放入通过列表中，页面载入下一个简历，并回到页面顶部。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>点击导航栏中的“应聘”菜单,然后点击“新应聘”子菜单，单击列表项中“归档”按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2880,10 +2872,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>该应聘者被放入待定列表中，页面载入下一个简历，并回到页面顶部。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>applications new 17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3041,6 +3029,30 @@
   </si>
   <si>
     <t>在导航栏中点击面试菜单，点击入职子菜单,点击应聘者拒绝按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该应聘者被放入通过列表中，页面载入下一个简历，并回到页面顶部。导航栏中“新应聘”子菜单计数值减一，“通过”子菜单计数值加一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该应聘者被放入待定列表中，页面载入下一个简历，并回到页面顶部。导航栏中“新应聘”子菜单计数值减一，“待定”子菜单计数值加一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该应聘者被放入人才库中，页面载入下一个简历，并回到页面顶部。导航栏中“新应聘”子菜单计数值减一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该应聘者被放入人才库中，页面载入下一个简历，并回到页面顶部。导航栏中“待定”子菜单计数值减一。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该应聘者被放入通过列表中，页面载入下一个简历，并回到页面顶部。导航栏中“待定”子菜单计数值减一，“通过”子菜单计数值加一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该应聘者被放入人才库中，页面载入下一个简历，并回到页面顶部。导航栏中“通过”子菜单计数值减一。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3183,8 +3195,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="701">
+  <cellStyleXfs count="703">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3952,7 +3966,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="701">
+  <cellStyles count="703">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -4303,6 +4317,7 @@
     <cellStyle name="超链接" xfId="695" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="697" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="699" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="701" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -4653,6 +4668,7 @@
     <cellStyle name="访问过的超链接" xfId="696" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="698" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="700" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="702" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6344,8 +6360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E393"/>
   <sheetViews>
-    <sheetView topLeftCell="A140" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="F144" sqref="F144"/>
+    <sheetView tabSelected="1" topLeftCell="A362" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="F376" sqref="F376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6912,7 +6928,7 @@
         <v>70</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="30">
@@ -6968,7 +6984,7 @@
         <v>70</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -7024,7 +7040,7 @@
         <v>70</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -7080,7 +7096,7 @@
         <v>70</v>
       </c>
       <c r="B102" s="17" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -7136,7 +7152,7 @@
         <v>70</v>
       </c>
       <c r="B110" s="17" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -7156,7 +7172,7 @@
         <v>6</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -7172,7 +7188,7 @@
         <v>82</v>
       </c>
       <c r="B115" s="17" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -7180,7 +7196,7 @@
         <v>68</v>
       </c>
       <c r="B116" s="17" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -7196,7 +7212,7 @@
         <v>70</v>
       </c>
       <c r="B118" s="17" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -7204,7 +7220,7 @@
         <v>71</v>
       </c>
       <c r="B119" s="17" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -7212,7 +7228,7 @@
         <v>6</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -7228,7 +7244,7 @@
         <v>82</v>
       </c>
       <c r="B123" s="17" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -7236,7 +7252,7 @@
         <v>68</v>
       </c>
       <c r="B124" s="17" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -7252,15 +7268,15 @@
         <v>70</v>
       </c>
       <c r="B126" s="17" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="30">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="45">
       <c r="A127" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B127" s="17" t="s">
-        <v>718</v>
+        <v>778</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -7268,7 +7284,7 @@
         <v>6</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -7284,7 +7300,7 @@
         <v>82</v>
       </c>
       <c r="B131" s="17" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -7292,7 +7308,7 @@
         <v>68</v>
       </c>
       <c r="B132" s="17" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -7308,15 +7324,15 @@
         <v>70</v>
       </c>
       <c r="B134" s="17" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="30">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="45">
       <c r="A135" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B135" s="17" t="s">
-        <v>737</v>
+        <v>779</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -7324,7 +7340,7 @@
         <v>6</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -7340,7 +7356,7 @@
         <v>82</v>
       </c>
       <c r="B139" s="17" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -7348,7 +7364,7 @@
         <v>68</v>
       </c>
       <c r="B140" s="17" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -7364,15 +7380,15 @@
         <v>70</v>
       </c>
       <c r="B142" s="17" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="30">
       <c r="A143" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B143" s="17" t="s">
-        <v>698</v>
+        <v>780</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -7380,7 +7396,7 @@
         <v>66</v>
       </c>
       <c r="B145" s="20" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -7404,7 +7420,7 @@
         <v>68</v>
       </c>
       <c r="B148" s="17" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -7420,7 +7436,7 @@
         <v>70</v>
       </c>
       <c r="B150" s="17" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="30">
@@ -7428,7 +7444,7 @@
         <v>71</v>
       </c>
       <c r="B151" s="17" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -7816,7 +7832,7 @@
         <v>70</v>
       </c>
       <c r="B207" s="17" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="30">
@@ -7872,7 +7888,7 @@
         <v>70</v>
       </c>
       <c r="B215" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -7928,7 +7944,7 @@
         <v>70</v>
       </c>
       <c r="B223" s="17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -7984,7 +8000,7 @@
         <v>70</v>
       </c>
       <c r="B231" s="17" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -8040,7 +8056,7 @@
         <v>70</v>
       </c>
       <c r="B239" s="17" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -8060,7 +8076,7 @@
         <v>6</v>
       </c>
       <c r="B242" s="14" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -8084,7 +8100,7 @@
         <v>68</v>
       </c>
       <c r="B245" s="17" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -8100,7 +8116,7 @@
         <v>70</v>
       </c>
       <c r="B247" s="17" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -8108,7 +8124,7 @@
         <v>71</v>
       </c>
       <c r="B248" s="17" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -8116,7 +8132,7 @@
         <v>6</v>
       </c>
       <c r="B250" s="14" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -8140,7 +8156,7 @@
         <v>68</v>
       </c>
       <c r="B253" s="17" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -8156,15 +8172,15 @@
         <v>70</v>
       </c>
       <c r="B255" s="17" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" ht="30">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="45">
       <c r="A256" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B256" s="17" t="s">
-        <v>718</v>
+        <v>782</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -8172,7 +8188,7 @@
         <v>6</v>
       </c>
       <c r="B258" s="14" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -8196,7 +8212,7 @@
         <v>68</v>
       </c>
       <c r="B261" s="17" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -8212,15 +8228,15 @@
         <v>70</v>
       </c>
       <c r="B263" s="17" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" ht="30">
       <c r="A264" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B264" s="17" t="s">
-        <v>698</v>
+        <v>781</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -8228,7 +8244,7 @@
         <v>6</v>
       </c>
       <c r="B266" s="14" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -8252,7 +8268,7 @@
         <v>68</v>
       </c>
       <c r="B269" s="17" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -8268,7 +8284,7 @@
         <v>70</v>
       </c>
       <c r="B271" s="17" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="45">
@@ -8276,7 +8292,7 @@
         <v>71</v>
       </c>
       <c r="B272" s="17" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -8952,7 +8968,7 @@
         <v>71</v>
       </c>
       <c r="B369" s="17" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -9059,12 +9075,12 @@
         <v>693</v>
       </c>
     </row>
-    <row r="385" spans="1:2">
+    <row r="385" spans="1:2" ht="30">
       <c r="A385" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B385" s="17" t="s">
-        <v>698</v>
+        <v>783</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -9096,7 +9112,7 @@
         <v>68</v>
       </c>
       <c r="B390" s="17" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -9120,7 +9136,7 @@
         <v>71</v>
       </c>
       <c r="B393" s="17" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
   </sheetData>
@@ -15049,7 +15065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B473"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A444" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+    <sheetView topLeftCell="A444" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
       <selection activeCell="C453" sqref="C453"/>
     </sheetView>
   </sheetViews>
@@ -16585,7 +16601,7 @@
         <v>70</v>
       </c>
       <c r="B215" s="17" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="45">
@@ -16881,7 +16897,7 @@
         <v>66</v>
       </c>
       <c r="B258" s="20" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -16921,7 +16937,7 @@
         <v>70</v>
       </c>
       <c r="B263" s="17" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -16929,7 +16945,7 @@
         <v>71</v>
       </c>
       <c r="B264" s="17" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -16941,7 +16957,7 @@
         <v>66</v>
       </c>
       <c r="B266" s="20" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -16981,7 +16997,7 @@
         <v>70</v>
       </c>
       <c r="B271" s="17" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -16989,7 +17005,7 @@
         <v>71</v>
       </c>
       <c r="B272" s="17" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -16997,7 +17013,7 @@
         <v>66</v>
       </c>
       <c r="B274" s="20" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -17037,7 +17053,7 @@
         <v>70</v>
       </c>
       <c r="B279" s="17" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -17045,7 +17061,7 @@
         <v>71</v>
       </c>
       <c r="B280" s="17" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -17053,7 +17069,7 @@
         <v>66</v>
       </c>
       <c r="B282" s="20" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -17093,7 +17109,7 @@
         <v>70</v>
       </c>
       <c r="B287" s="17" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -17101,7 +17117,7 @@
         <v>71</v>
       </c>
       <c r="B288" s="17" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -17109,7 +17125,7 @@
         <v>66</v>
       </c>
       <c r="B290" s="20" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -17149,7 +17165,7 @@
         <v>70</v>
       </c>
       <c r="B295" s="17" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -17157,7 +17173,7 @@
         <v>71</v>
       </c>
       <c r="B296" s="17" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -17169,7 +17185,7 @@
         <v>66</v>
       </c>
       <c r="B298" s="20" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -17209,7 +17225,7 @@
         <v>70</v>
       </c>
       <c r="B303" s="17" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -17217,7 +17233,7 @@
         <v>71</v>
       </c>
       <c r="B304" s="17" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -17225,7 +17241,7 @@
         <v>66</v>
       </c>
       <c r="B306" s="20" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -17265,7 +17281,7 @@
         <v>70</v>
       </c>
       <c r="B311" s="17" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -17273,7 +17289,7 @@
         <v>71</v>
       </c>
       <c r="B312" s="17" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -17281,7 +17297,7 @@
         <v>66</v>
       </c>
       <c r="B314" s="20" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -17321,7 +17337,7 @@
         <v>70</v>
       </c>
       <c r="B319" s="17" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -17329,7 +17345,7 @@
         <v>71</v>
       </c>
       <c r="B320" s="17" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -17973,7 +17989,7 @@
         <v>66</v>
       </c>
       <c r="B411" s="20" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -17989,7 +18005,7 @@
         <v>82</v>
       </c>
       <c r="B413" s="17" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -17997,7 +18013,7 @@
         <v>68</v>
       </c>
       <c r="B414" s="17" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -18013,7 +18029,7 @@
         <v>70</v>
       </c>
       <c r="B416" s="17" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -18021,7 +18037,7 @@
         <v>71</v>
       </c>
       <c r="B417" s="17" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -18033,7 +18049,7 @@
         <v>66</v>
       </c>
       <c r="B419" s="20" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -18049,7 +18065,7 @@
         <v>82</v>
       </c>
       <c r="B421" s="17" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -18057,7 +18073,7 @@
         <v>68</v>
       </c>
       <c r="B422" s="17" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -18073,7 +18089,7 @@
         <v>70</v>
       </c>
       <c r="B424" s="17" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -18081,7 +18097,7 @@
         <v>71</v>
       </c>
       <c r="B425" s="17" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -18089,7 +18105,7 @@
         <v>66</v>
       </c>
       <c r="B427" s="20" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -18105,7 +18121,7 @@
         <v>82</v>
       </c>
       <c r="B429" s="17" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -18113,7 +18129,7 @@
         <v>68</v>
       </c>
       <c r="B430" s="17" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -18129,7 +18145,7 @@
         <v>70</v>
       </c>
       <c r="B432" s="17" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -18137,7 +18153,7 @@
         <v>71</v>
       </c>
       <c r="B433" s="17" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -18145,7 +18161,7 @@
         <v>66</v>
       </c>
       <c r="B435" s="20" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -18161,7 +18177,7 @@
         <v>82</v>
       </c>
       <c r="B437" s="17" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -18169,7 +18185,7 @@
         <v>68</v>
       </c>
       <c r="B438" s="17" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -18185,7 +18201,7 @@
         <v>70</v>
       </c>
       <c r="B440" s="17" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -18193,7 +18209,7 @@
         <v>71</v>
       </c>
       <c r="B441" s="17" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -18201,7 +18217,7 @@
         <v>66</v>
       </c>
       <c r="B443" s="20" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -18217,7 +18233,7 @@
         <v>82</v>
       </c>
       <c r="B445" s="17" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -18225,7 +18241,7 @@
         <v>68</v>
       </c>
       <c r="B446" s="17" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -18241,7 +18257,7 @@
         <v>70</v>
       </c>
       <c r="B448" s="17" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -18249,7 +18265,7 @@
         <v>71</v>
       </c>
       <c r="B449" s="17" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -18261,7 +18277,7 @@
         <v>66</v>
       </c>
       <c r="B451" s="20" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -18277,7 +18293,7 @@
         <v>82</v>
       </c>
       <c r="B453" s="17" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -18285,7 +18301,7 @@
         <v>68</v>
       </c>
       <c r="B454" s="17" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -18301,7 +18317,7 @@
         <v>70</v>
       </c>
       <c r="B456" s="17" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -18309,7 +18325,7 @@
         <v>71</v>
       </c>
       <c r="B457" s="17" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -18317,7 +18333,7 @@
         <v>66</v>
       </c>
       <c r="B459" s="20" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -18333,7 +18349,7 @@
         <v>82</v>
       </c>
       <c r="B461" s="17" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -18341,7 +18357,7 @@
         <v>68</v>
       </c>
       <c r="B462" s="17" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -18357,7 +18373,7 @@
         <v>70</v>
       </c>
       <c r="B464" s="17" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -18365,7 +18381,7 @@
         <v>71</v>
       </c>
       <c r="B465" s="17" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -18373,7 +18389,7 @@
         <v>66</v>
       </c>
       <c r="B467" s="20" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -18389,7 +18405,7 @@
         <v>82</v>
       </c>
       <c r="B469" s="17" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -18397,7 +18413,7 @@
         <v>68</v>
       </c>
       <c r="B470" s="17" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -18413,7 +18429,7 @@
         <v>70</v>
       </c>
       <c r="B472" s="17" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -18421,7 +18437,7 @@
         <v>71</v>
       </c>
       <c r="B473" s="17" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
   </sheetData>

--- a/test/client/e2e test cases.xlsx
+++ b/test/client/e2e test cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20300" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20300" tabRatio="500" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="未登录" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="设置" sheetId="9" r:id="rId7"/>
     <sheet name="面试" sheetId="10" r:id="rId8"/>
     <sheet name="pagination" sheetId="12" r:id="rId9"/>
+    <sheet name="面试设置" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3406" uniqueCount="784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3504" uniqueCount="804">
   <si>
     <t>步骤</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3053,6 +3054,84 @@
   </si>
   <si>
     <t>该应聘者被放入人才库中，页面载入下一个简历，并回到页面顶部。导航栏中“通过”子菜单计数值减一。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setting eventsetting 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/settings/eventsetting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在导航栏中点击设置菜单，点击面试设置子菜单,在默认时长输入框中输入90。创建一个面试预约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建面试预约对话框中，时长应默认为90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件被发送到应聘者邮箱。邮件模板中的姓名，应聘职位，开始时间和结束时间应被正确填写。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setting eventsetting 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setting eventsetting 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件被发送到所有面试官邮箱。邮件模板中的姓名，应聘职位，开始时间和结束时间应被正确填写。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在导航栏中点击设置菜单，点击面试设置子菜单,在创建面试邀请tab中勾选“当创建面试邀请时，自动发送邮件提醒给应聘者”。创建一个面试邀请，点击确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在导航栏中点击设置菜单，点击面试设置子菜单,在创建面试邀请tab中勾选“当创建面试邀请时，自动发送邮件提醒给面试官”。创建一个面试邀请，点击确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setting eventsetting 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setting eventsetting 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在导航栏中点击设置菜单，点击面试设置子菜单,在修改面试邀请tab中勾选“当修改面试邀请时，自动发送邮件提醒给应聘者”。修改一个面试邀请，点击确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setting eventsetting 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setting eventsetting 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在导航栏中点击设置菜单，点击面试设置子菜单,在取消面试邀请tab中勾选“当取消面试邀请时，自动发送邮件提醒给应聘者”。取消一个面试邀请，点击确定</t>
+  </si>
+  <si>
+    <t>在导航栏中点击设置菜单，点击面试设置子菜单,在创建面试邀请tab中勾选“当取消面试邀请时，自动发送邮件提醒给面试官”。取消一个面试邀请，点击确定</t>
+  </si>
+  <si>
+    <t>在导航栏中点击设置菜单，点击面试设置子菜单,在修改面试邀请tab中勾选“当修改面试邀请时，自动发送邮件提醒给面试官”。修改一个面试邀请，点击确定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3195,8 +3274,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="703">
+  <cellStyleXfs count="733">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3966,7 +4075,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="703">
+  <cellStyles count="733">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -4318,6 +4427,21 @@
     <cellStyle name="超链接" xfId="697" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="699" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="701" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="703" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="705" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="707" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="709" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="711" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="713" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="715" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="717" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="719" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="721" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="723" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="725" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="727" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="729" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="731" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -4669,6 +4793,21 @@
     <cellStyle name="访问过的超链接" xfId="698" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="700" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="702" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="704" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="706" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="708" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="710" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="712" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="714" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="716" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="718" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="720" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="722" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="724" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="726" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="728" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="730" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="732" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5706,6 +5845,424 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="29.1640625" customWidth="1"/>
+    <col min="2" max="2" width="54.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30">
+      <c r="A6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="45">
+      <c r="A14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30">
+      <c r="A15" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="45">
+      <c r="A22" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30">
+      <c r="A23" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="45">
+      <c r="A30" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30">
+      <c r="A31" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="45">
+      <c r="A38" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30">
+      <c r="A39" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="45">
+      <c r="A46" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="30">
+      <c r="A47" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="45">
+      <c r="A54" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="30">
+      <c r="A55" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>792</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B84"/>
@@ -6360,7 +6917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E393"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A362" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView topLeftCell="A362" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="F376" sqref="F376"/>
     </sheetView>
   </sheetViews>
@@ -9155,7 +9712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B336"/>
   <sheetViews>
-    <sheetView topLeftCell="A104" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
       <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
@@ -15066,7 +15623,7 @@
   <dimension ref="A1:B473"/>
   <sheetViews>
     <sheetView topLeftCell="A444" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="C453" sqref="C453"/>
+      <selection activeCell="A467" sqref="A467:B472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -18457,7 +19014,7 @@
   <dimension ref="A1:B87"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A15" sqref="A15:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
